--- a/R/data/MI241111.xlsx
+++ b/R/data/MI241111.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDE99EE-F7D6-C649-A45E-A3817E641F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70405B2-42DB-D442-979C-3BB4BED8F862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="1700" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1206,7 +1206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5261" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6087" uniqueCount="320">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2074,6 +2074,99 @@
   </si>
   <si>
     <t>윤병찬</t>
+  </si>
+  <si>
+    <t>doheehana@naver.com</t>
+  </si>
+  <si>
+    <t>김도희</t>
+  </si>
+  <si>
+    <t>h20191240@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>홍이래</t>
+  </si>
+  <si>
+    <t>tommy21940@gmail.com</t>
+  </si>
+  <si>
+    <t>양민혁</t>
+  </si>
+  <si>
+    <t>minseok1937@gmail.com</t>
+  </si>
+  <si>
+    <t>김민석</t>
+  </si>
+  <si>
+    <t>algus5661@naver.com</t>
+  </si>
+  <si>
+    <t>최미현</t>
+  </si>
+  <si>
+    <t>oepdwrtyy@gmail.com</t>
+  </si>
+  <si>
+    <t>강종현</t>
+  </si>
+  <si>
+    <t>eung4077@gmail.com</t>
+  </si>
+  <si>
+    <t>강은결</t>
+  </si>
+  <si>
+    <t>kimguswls6685@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>ertyhx3@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광고홍보학과 </t>
+  </si>
+  <si>
+    <t>김미소</t>
+  </si>
+  <si>
+    <t>junsa215909@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>syw050819@naver.com</t>
+  </si>
+  <si>
+    <t>신예원</t>
+  </si>
+  <si>
+    <t>snp040609@naver.com</t>
+  </si>
+  <si>
+    <t>박세나</t>
+  </si>
+  <si>
+    <t>rer220@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT</t>
+  </si>
+  <si>
+    <t>김대명</t>
+  </si>
+  <si>
+    <t>withhowon@gmail.com</t>
+  </si>
+  <si>
+    <t>서호원</t>
   </si>
 </sst>
 </file>
@@ -2455,7 +2548,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:BQ89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:BQ103">
   <tableColumns count="69">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -2732,11 +2825,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ89"/>
+  <dimension ref="A1:BQ103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
+      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21403,6 +21496,2932 @@
         <v>18</v>
       </c>
     </row>
+    <row r="90" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="4">
+        <v>45608.667266516204</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D90" s="5">
+        <v>20246215</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P90" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q90" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R90" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S90" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T90" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U90" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V90" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X90" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB90" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC90" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF90" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI90" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ90" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK90" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM90" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN90" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP90" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ90" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV90" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW90" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY90" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ90" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA90" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD90" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE90" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF90" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG90" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH90" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI90" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ90" s="5">
+        <v>10</v>
+      </c>
+      <c r="BK90" s="5">
+        <v>10</v>
+      </c>
+      <c r="BL90" s="5">
+        <v>22</v>
+      </c>
+      <c r="BM90" s="5">
+        <v>12</v>
+      </c>
+      <c r="BN90" s="5">
+        <v>14</v>
+      </c>
+      <c r="BO90" s="5">
+        <v>18</v>
+      </c>
+      <c r="BP90" s="5">
+        <v>24</v>
+      </c>
+      <c r="BQ90" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="7">
+        <v>45608.686451886577</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D91" s="8">
+        <v>20191240</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O91" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R91" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S91" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T91" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U91" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="V91" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X91" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA91" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB91" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD91" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF91" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG91" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH91" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI91" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ91" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK91" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL91" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN91" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP91" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ91" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV91" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW91" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY91" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ91" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA91" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB91" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD91" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE91" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF91" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG91" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH91" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI91" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ91" s="8">
+        <v>17</v>
+      </c>
+      <c r="BK91" s="8">
+        <v>8</v>
+      </c>
+      <c r="BL91" s="8">
+        <v>21</v>
+      </c>
+      <c r="BM91" s="8">
+        <v>13</v>
+      </c>
+      <c r="BN91" s="8">
+        <v>21</v>
+      </c>
+      <c r="BO91" s="8">
+        <v>25</v>
+      </c>
+      <c r="BP91" s="8">
+        <v>24</v>
+      </c>
+      <c r="BQ91" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="4">
+        <v>45608.689785960647</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" s="5">
+        <v>20241054</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q92" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T92" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U92" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="V92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W92" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X92" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z92" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB92" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC92" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE92" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG92" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI92" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK92" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL92" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO92" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR92" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS92" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU92" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW92" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX92" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA92" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB92" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC92" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG92" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH92" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI92" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ92" s="5">
+        <v>29</v>
+      </c>
+      <c r="BK92" s="5">
+        <v>23</v>
+      </c>
+      <c r="BL92" s="5">
+        <v>27</v>
+      </c>
+      <c r="BM92" s="5">
+        <v>24</v>
+      </c>
+      <c r="BN92" s="5">
+        <v>24</v>
+      </c>
+      <c r="BO92" s="5">
+        <v>28</v>
+      </c>
+      <c r="BP92" s="5">
+        <v>33</v>
+      </c>
+      <c r="BQ92" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="7">
+        <v>45608.699819340276</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D93" s="8">
+        <v>20202915</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J93" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M93" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O93" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R93" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S93" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T93" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U93" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="V93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="W93" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X93" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB93" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE93" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF93" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG93" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH93" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI93" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ93" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN93" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ93" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX93" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY93" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ93" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD93" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE93" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF93" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG93" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH93" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI93" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ93" s="8">
+        <v>8</v>
+      </c>
+      <c r="BK93" s="8">
+        <v>15</v>
+      </c>
+      <c r="BL93" s="8">
+        <v>17</v>
+      </c>
+      <c r="BM93" s="8">
+        <v>13</v>
+      </c>
+      <c r="BN93" s="8">
+        <v>14</v>
+      </c>
+      <c r="BO93" s="8">
+        <v>27</v>
+      </c>
+      <c r="BP93" s="8">
+        <v>29</v>
+      </c>
+      <c r="BQ93" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="4">
+        <v>45608.699891655095</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D94" s="5">
+        <v>20242355</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M94" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P94" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q94" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R94" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S94" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T94" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U94" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V94" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W94" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X94" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y94" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z94" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA94" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB94" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC94" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD94" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE94" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF94" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG94" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH94" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI94" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ94" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK94" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL94" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM94" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN94" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO94" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP94" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ94" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR94" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS94" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT94" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU94" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV94" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW94" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX94" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY94" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ94" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA94" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB94" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC94" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD94" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE94" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF94" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG94" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH94" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI94" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ94" s="5">
+        <v>10</v>
+      </c>
+      <c r="BK94" s="5">
+        <v>16</v>
+      </c>
+      <c r="BL94" s="5">
+        <v>15</v>
+      </c>
+      <c r="BM94" s="5">
+        <v>16</v>
+      </c>
+      <c r="BN94" s="5">
+        <v>18</v>
+      </c>
+      <c r="BO94" s="5">
+        <v>25</v>
+      </c>
+      <c r="BP94" s="5">
+        <v>22</v>
+      </c>
+      <c r="BQ94" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="7">
+        <v>45608.706379872689</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" s="8">
+        <v>20241003</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N95" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O95" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P95" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S95" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U95" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="V95" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="W95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y95" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z95" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA95" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB95" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD95" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE95" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF95" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG95" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH95" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK95" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM95" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN95" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ95" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR95" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS95" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU95" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV95" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX95" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ95" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB95" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD95" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE95" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF95" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH95" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI95" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ95" s="8">
+        <v>28</v>
+      </c>
+      <c r="BK95" s="8">
+        <v>16</v>
+      </c>
+      <c r="BL95" s="8">
+        <v>18</v>
+      </c>
+      <c r="BM95" s="8">
+        <v>25</v>
+      </c>
+      <c r="BN95" s="8">
+        <v>25</v>
+      </c>
+      <c r="BO95" s="8">
+        <v>18</v>
+      </c>
+      <c r="BP95" s="8">
+        <v>19</v>
+      </c>
+      <c r="BQ95" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="4">
+        <v>45608.772925486111</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96" s="5">
+        <v>20242201</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O96" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q96" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R96" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U96" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V96" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X96" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y96" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z96" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA96" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD96" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE96" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH96" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ96" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL96" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM96" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN96" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP96" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ96" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR96" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT96" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU96" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX96" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY96" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ96" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA96" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB96" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC96" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE96" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF96" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG96" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH96" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ96" s="5">
+        <v>11</v>
+      </c>
+      <c r="BK96" s="5">
+        <v>18</v>
+      </c>
+      <c r="BL96" s="5">
+        <v>20</v>
+      </c>
+      <c r="BM96" s="5">
+        <v>23</v>
+      </c>
+      <c r="BN96" s="5">
+        <v>15</v>
+      </c>
+      <c r="BO96" s="5">
+        <v>21</v>
+      </c>
+      <c r="BP96" s="5">
+        <v>26</v>
+      </c>
+      <c r="BQ96" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="7">
+        <v>45608.842677511573</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D97" s="8">
+        <v>20215144</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O97" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P97" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R97" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="T97" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="V97" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y97" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z97" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC97" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD97" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG97" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH97" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK97" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM97" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO97" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP97" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ97" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR97" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS97" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU97" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV97" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW97" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX97" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY97" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ97" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA97" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB97" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC97" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF97" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG97" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH97" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI97" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ97" s="8">
+        <v>17</v>
+      </c>
+      <c r="BK97" s="8">
+        <v>17</v>
+      </c>
+      <c r="BL97" s="8">
+        <v>20</v>
+      </c>
+      <c r="BM97" s="8">
+        <v>20</v>
+      </c>
+      <c r="BN97" s="8">
+        <v>17</v>
+      </c>
+      <c r="BO97" s="8">
+        <v>21</v>
+      </c>
+      <c r="BP97" s="8">
+        <v>21</v>
+      </c>
+      <c r="BQ97" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="4">
+        <v>45608.849395196754</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D98" s="5">
+        <v>20242607</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M98" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N98" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O98" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P98" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q98" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="W98" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y98" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD98" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE98" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN98" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO98" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP98" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR98" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF98" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI98" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ98" s="5">
+        <v>12</v>
+      </c>
+      <c r="BK98" s="5">
+        <v>10</v>
+      </c>
+      <c r="BL98" s="5">
+        <v>10</v>
+      </c>
+      <c r="BM98" s="5">
+        <v>20</v>
+      </c>
+      <c r="BN98" s="5">
+        <v>20</v>
+      </c>
+      <c r="BO98" s="5">
+        <v>10</v>
+      </c>
+      <c r="BP98" s="5">
+        <v>20</v>
+      </c>
+      <c r="BQ98" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="7">
+        <v>45608.850324270832</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D99" s="8">
+        <v>20203006</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O99" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P99" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R99" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S99" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="T99" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="V99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W99" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X99" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA99" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB99" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE99" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF99" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG99" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH99" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI99" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ99" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM99" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN99" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ99" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR99" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV99" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY99" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ99" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB99" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC99" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD99" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG99" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH99" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ99" s="8">
+        <v>17</v>
+      </c>
+      <c r="BK99" s="8">
+        <v>23</v>
+      </c>
+      <c r="BL99" s="8">
+        <v>22</v>
+      </c>
+      <c r="BM99" s="8">
+        <v>15</v>
+      </c>
+      <c r="BN99" s="8">
+        <v>19</v>
+      </c>
+      <c r="BO99" s="8">
+        <v>24</v>
+      </c>
+      <c r="BP99" s="8">
+        <v>26</v>
+      </c>
+      <c r="BQ99" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="4">
+        <v>45608.853042465278</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D100" s="5">
+        <v>20246251</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M100" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q100" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R100" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S100" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U100" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V100" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y100" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC100" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD100" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE100" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI100" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK100" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL100" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP100" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ100" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR100" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS100" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW100" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX100" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY100" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ100" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA100" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC100" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE100" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG100" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ100" s="5">
+        <v>22</v>
+      </c>
+      <c r="BK100" s="5">
+        <v>24</v>
+      </c>
+      <c r="BL100" s="5">
+        <v>27</v>
+      </c>
+      <c r="BM100" s="5">
+        <v>22</v>
+      </c>
+      <c r="BN100" s="5">
+        <v>20</v>
+      </c>
+      <c r="BO100" s="5">
+        <v>29</v>
+      </c>
+      <c r="BP100" s="5">
+        <v>27</v>
+      </c>
+      <c r="BQ100" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="7">
+        <v>45608.869106620376</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101" s="8">
+        <v>20242957</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N101" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O101" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T101" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="V101" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W101" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X101" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y101" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z101" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC101" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD101" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE101" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG101" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH101" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI101" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK101" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL101" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM101" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO101" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR101" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS101" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT101" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU101" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV101" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW101" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA101" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB101" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC101" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE101" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH101" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI101" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ101" s="8">
+        <v>12</v>
+      </c>
+      <c r="BK101" s="8">
+        <v>14</v>
+      </c>
+      <c r="BL101" s="8">
+        <v>26</v>
+      </c>
+      <c r="BM101" s="8">
+        <v>16</v>
+      </c>
+      <c r="BN101" s="8">
+        <v>26</v>
+      </c>
+      <c r="BO101" s="8">
+        <v>30</v>
+      </c>
+      <c r="BP101" s="8">
+        <v>26</v>
+      </c>
+      <c r="BQ101" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="4">
+        <v>45608.87045771991</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D102" s="5">
+        <v>20205124</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q102" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R102" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S102" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T102" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X102" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA102" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB102" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD102" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF102" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG102" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI102" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ102" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK102" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM102" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO102" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP102" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ102" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR102" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV102" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW102" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY102" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ102" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD102" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE102" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF102" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH102" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI102" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ102" s="5">
+        <v>13</v>
+      </c>
+      <c r="BK102" s="5">
+        <v>10</v>
+      </c>
+      <c r="BL102" s="5">
+        <v>18</v>
+      </c>
+      <c r="BM102" s="5">
+        <v>24</v>
+      </c>
+      <c r="BN102" s="5">
+        <v>15</v>
+      </c>
+      <c r="BO102" s="5">
+        <v>22</v>
+      </c>
+      <c r="BP102" s="5">
+        <v>27</v>
+      </c>
+      <c r="BQ102" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="14">
+        <v>45608.872960567125</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D103" s="15">
+        <v>20246245</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I103" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J103" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K103" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L103" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M103" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="N103" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O103" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P103" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q103" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="R103" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S103" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="T103" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="U103" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="V103" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="W103" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="X103" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y103" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z103" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA103" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB103" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC103" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD103" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE103" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF103" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG103" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH103" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI103" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ103" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK103" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL103" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM103" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN103" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO103" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP103" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ103" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR103" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS103" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT103" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU103" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV103" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW103" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX103" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY103" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ103" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA103" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB103" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC103" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD103" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE103" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF103" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG103" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH103" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI103" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ103" s="15">
+        <v>24</v>
+      </c>
+      <c r="BK103" s="15">
+        <v>17</v>
+      </c>
+      <c r="BL103" s="15">
+        <v>27</v>
+      </c>
+      <c r="BM103" s="15">
+        <v>33</v>
+      </c>
+      <c r="BN103" s="15">
+        <v>19</v>
+      </c>
+      <c r="BO103" s="15">
+        <v>20</v>
+      </c>
+      <c r="BP103" s="15">
+        <v>26</v>
+      </c>
+      <c r="BQ103" s="16">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/MI241111.xlsx
+++ b/R/data/MI241111.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDCFD5A-B9DF-8E43-A5E6-4EE77F0D9B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677464B1-0A3D-1A42-B3E9-C24C8458763C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="1700" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4127,12 +4127,2980 @@
         </r>
       </text>
     </comment>
+    <comment ref="F191" authorId="0" shapeId="0" xr:uid="{8781730E-688B-FB4C-B065-1598A62B444F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G191" authorId="0" shapeId="0" xr:uid="{C92FF314-9AAC-154D-BC78-4F1A2509157F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H191" authorId="0" shapeId="0" xr:uid="{3909D17B-DEFD-0742-A334-30D85C038775}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I191" authorId="0" shapeId="0" xr:uid="{A84C1834-DE62-DE4F-8C97-6B8C6B8422EB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J191" authorId="0" shapeId="0" xr:uid="{C8CE2368-6D5B-D043-9277-6F8762A1F05F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K191" authorId="0" shapeId="0" xr:uid="{5DF7FBA6-5051-6848-BE9A-43DEDBA46F07}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L191" authorId="0" shapeId="0" xr:uid="{E1AE829A-F3AF-5A44-AB37-9697D379BCA9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N191" authorId="0" shapeId="0" xr:uid="{8CC68F73-C4B1-C142-9FB8-064B0B0A0D82}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O191" authorId="0" shapeId="0" xr:uid="{F533E30E-552E-3E46-8F01-AF4C02703CF0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P191" authorId="0" shapeId="0" xr:uid="{3033BADF-B269-4F40-A3A6-D32FB512CA39}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q191" authorId="0" shapeId="0" xr:uid="{AD3C3F98-8C10-9647-B2B7-E1DB5D20DEA7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R191" authorId="0" shapeId="0" xr:uid="{985F678A-D005-F847-91F7-CB8AECB87392}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S191" authorId="0" shapeId="0" xr:uid="{E9A55BCC-2800-0C4C-8277-79C706C64A94}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T191" authorId="0" shapeId="0" xr:uid="{14C9788A-B505-DC4E-AE67-64E71911EA66}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U191" authorId="0" shapeId="0" xr:uid="{42E52A2F-8B54-B44B-BB6A-AD1A9B8C9C2B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V191" authorId="0" shapeId="0" xr:uid="{9695575E-816A-EB47-AD18-99ACA0BF11FC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W191" authorId="0" shapeId="0" xr:uid="{25D0A5C6-0E33-C64B-9BAC-50440035CDFC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X191" authorId="0" shapeId="0" xr:uid="{EEE1A3A6-C90C-1B4F-B88E-9555331A0B03}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y191" authorId="0" shapeId="0" xr:uid="{190999A7-9010-1744-A302-553CFA1433A1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z191" authorId="0" shapeId="0" xr:uid="{008B9FAE-3B0D-F245-B580-8551C2EEFE8C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA191" authorId="0" shapeId="0" xr:uid="{BD45566F-9BED-FF4D-A319-D4530000C0A8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC191" authorId="0" shapeId="0" xr:uid="{9E48DC5E-3D47-2146-B14D-8EA0CE64E222}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD191" authorId="0" shapeId="0" xr:uid="{EB17C4AE-731D-3B43-9D54-B87B61CB6A32}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE191" authorId="0" shapeId="0" xr:uid="{C3F6D778-8DFE-6D4D-B83A-2894DE83984A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG191" authorId="0" shapeId="0" xr:uid="{63E8878D-1FE6-6B4B-874C-BCB30F2748A6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH191" authorId="0" shapeId="0" xr:uid="{A92F05D7-2B38-CF41-BA51-DEFC2FAB13DB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI191" authorId="0" shapeId="0" xr:uid="{5FF52A95-5F81-AD4F-850B-477C17883726}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK191" authorId="0" shapeId="0" xr:uid="{A5F1DA1F-F108-BA49-951B-F17F44686CC7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL191" authorId="0" shapeId="0" xr:uid="{ECBF0D13-863E-0B4E-B4A0-4321EACA3E3D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM191" authorId="0" shapeId="0" xr:uid="{68AD7C68-8CD5-0945-BDBC-41D020CE4F67}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN191" authorId="0" shapeId="0" xr:uid="{D3D8143F-6CED-1C48-A288-EA5B04897C24}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO191" authorId="0" shapeId="0" xr:uid="{174C9624-B7AC-9545-93F4-AB4EB1FA1A23}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP191" authorId="0" shapeId="0" xr:uid="{50FB74EF-2958-FA47-A9AF-E4F5A7264A2B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ191" authorId="0" shapeId="0" xr:uid="{C2BE21B1-D441-714B-9CC8-51A5519ABB5D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR191" authorId="0" shapeId="0" xr:uid="{AEA0E411-1B12-124E-95DD-B455F06C94D8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS191" authorId="0" shapeId="0" xr:uid="{BFC48FB3-1CB7-BD48-8503-CAA7184A7EEF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT191" authorId="0" shapeId="0" xr:uid="{421D2752-58F8-5E4E-ACD5-296DDCECD8E5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU191" authorId="0" shapeId="0" xr:uid="{4DD81101-C27A-574B-9BA5-64C5B20CCCE3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV191" authorId="0" shapeId="0" xr:uid="{C9FB6CBD-39CE-494A-AD76-AC37D0D91F21}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW191" authorId="0" shapeId="0" xr:uid="{A439772A-2350-664E-83B1-2A3607222C2C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX191" authorId="0" shapeId="0" xr:uid="{8EA58959-11C2-7F45-8F4E-330C05EACE42}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ191" authorId="0" shapeId="0" xr:uid="{FB5B8784-774F-B342-A8F3-075A37B1AC1A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA191" authorId="0" shapeId="0" xr:uid="{3F9B1FC9-8B8A-684A-AE2C-40DF9A8BCC4E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB191" authorId="0" shapeId="0" xr:uid="{7D6A2C69-E147-C746-858F-80EDE3C27E2B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC191" authorId="0" shapeId="0" xr:uid="{A9651E6B-624D-9D47-B88D-51AFB59F4BE9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD191" authorId="0" shapeId="0" xr:uid="{13473515-B5C1-6248-87A4-835C20D30AA1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE191" authorId="0" shapeId="0" xr:uid="{4909D41B-E964-724A-B3BE-AC4FAC2E02FD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG191" authorId="0" shapeId="0" xr:uid="{E9A5012B-7E5E-EE45-BD6B-B58D39B9BCAF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH191" authorId="0" shapeId="0" xr:uid="{CAC1D2BC-E26B-214F-AB66-A88F1E1AAB8D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI191" authorId="0" shapeId="0" xr:uid="{EC70EB5D-EDFE-5E4D-B18D-E87F63D08BC1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ191" authorId="0" shapeId="0" xr:uid="{0C11AC2D-3A6F-8144-B3F5-DA2A0071F247}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK191" authorId="0" shapeId="0" xr:uid="{EAB38068-6BF0-8F4D-870D-CFDDC1D7EEEF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL191" authorId="0" shapeId="0" xr:uid="{11CA63DB-1749-0A4E-B0C5-CCA035117A3C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM191" authorId="0" shapeId="0" xr:uid="{082D8169-AFB5-5F4B-8E7A-C529215C9FE1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN191" authorId="0" shapeId="0" xr:uid="{D2022AF5-35A8-644A-B289-7AF80F2377ED}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO191" authorId="0" shapeId="0" xr:uid="{D00D94D6-F47A-4841-B158-B5FB51224CCD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP191" authorId="0" shapeId="0" xr:uid="{7839FB85-EB10-4C4C-98BE-EBDD5C34B571}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ191" authorId="0" shapeId="0" xr:uid="{4DBDFF01-F962-DF4F-8EB1-680A457AA3B6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BR191" authorId="0" shapeId="0" xr:uid="{636255A9-2E9D-4846-AEF1-683D97CC6868}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F196" authorId="0" shapeId="0" xr:uid="{B05EB1C8-37A7-D844-A985-0EE75202F8C6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G196" authorId="0" shapeId="0" xr:uid="{D679FB36-93F7-DE4E-894C-8C7FFFF9C1D6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H196" authorId="0" shapeId="0" xr:uid="{0323078A-4D55-2944-915A-C01FAE2EB2D5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I196" authorId="0" shapeId="0" xr:uid="{BFE024ED-C173-6146-85B9-5A9F3738FA63}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K196" authorId="0" shapeId="0" xr:uid="{262F72A2-56A4-6544-ACC2-A8807BE81EEE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L196" authorId="0" shapeId="0" xr:uid="{464C4207-CCE9-1747-B70C-1B0D2E43C98D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M196" authorId="0" shapeId="0" xr:uid="{15C2A261-DF84-1344-9E1A-C02FE046BE72}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N196" authorId="0" shapeId="0" xr:uid="{0247588A-2959-A640-88C5-CD5CFFFA5748}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O196" authorId="0" shapeId="0" xr:uid="{555AC627-13DC-1B4C-8D48-1B995962F9AD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P196" authorId="0" shapeId="0" xr:uid="{7718BE4E-266B-764E-8B1F-632BEC095FC4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q196" authorId="0" shapeId="0" xr:uid="{7EC89898-B73A-D344-AC37-2DE7D5D6A67C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R196" authorId="0" shapeId="0" xr:uid="{D2F1CD9A-C529-9549-BAE0-DE76AA3F3169}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S196" authorId="0" shapeId="0" xr:uid="{331656F0-E45E-B446-9B50-A4C808D55481}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U196" authorId="0" shapeId="0" xr:uid="{C87ECA21-3C5F-D841-A856-6103DE22E2EA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V196" authorId="0" shapeId="0" xr:uid="{BEF44E3B-FD5E-B642-B167-56E971005F8B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W196" authorId="0" shapeId="0" xr:uid="{BEB74846-1D83-554B-9B1A-9B9A0B8D8A0A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X196" authorId="0" shapeId="0" xr:uid="{EB0069D3-12AA-7841-B5A1-C6287519FB1E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y196" authorId="0" shapeId="0" xr:uid="{9A6DADF0-C5A5-394C-BACC-4BA069D61866}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z196" authorId="0" shapeId="0" xr:uid="{F9F8CF90-1A28-1044-BB44-D52A1AB079D0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA196" authorId="0" shapeId="0" xr:uid="{6A2BCBED-E017-A44A-88BE-06B5540BEA5D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB196" authorId="0" shapeId="0" xr:uid="{82F72F35-4EF4-4F43-95F0-433C6887F1C7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC196" authorId="0" shapeId="0" xr:uid="{B8F4B17B-66F5-4C43-8122-CC40DA89F4E9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD196" authorId="0" shapeId="0" xr:uid="{B78E55A0-C477-6245-B00D-93790F2816D9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE196" authorId="0" shapeId="0" xr:uid="{8AB653F3-DA32-514F-BDA6-4032E4BADFEA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG196" authorId="0" shapeId="0" xr:uid="{A954EE26-9267-4F4C-8FAA-7129BB278808}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH196" authorId="0" shapeId="0" xr:uid="{439490FA-F07B-3944-A2EF-699DC92CE3B7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ196" authorId="0" shapeId="0" xr:uid="{4BF7DE98-852A-FC41-9518-0A781BFA30D7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK196" authorId="0" shapeId="0" xr:uid="{B66CF01A-5B7D-4749-BF52-EC09CF752F6B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL196" authorId="0" shapeId="0" xr:uid="{958ACBCA-384D-E74C-8792-4924F6160D34}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM196" authorId="0" shapeId="0" xr:uid="{334FDAD2-25D4-FA49-A826-0B28C0D450AF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN196" authorId="0" shapeId="0" xr:uid="{EEA837E3-086C-414E-AE54-1A9718668F30}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO196" authorId="0" shapeId="0" xr:uid="{5ADCC0C6-F281-F94D-ADF6-66BADBC1FCFE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ196" authorId="0" shapeId="0" xr:uid="{986BF224-9EE4-B740-8ACE-392D994C8B50}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR196" authorId="0" shapeId="0" xr:uid="{E4FBFA06-7137-4845-9BA2-90633C8BFD67}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS196" authorId="0" shapeId="0" xr:uid="{2396C5CA-DDC8-724B-9C4F-B7B3932F36A9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT196" authorId="0" shapeId="0" xr:uid="{DF40ABE5-0081-C846-B392-AC3056C8D28A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU196" authorId="0" shapeId="0" xr:uid="{65E1937F-F221-0443-A23E-EB66B6B3C718}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV196" authorId="0" shapeId="0" xr:uid="{DD3DA3DE-C3EA-8B47-93BD-412662685216}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW196" authorId="0" shapeId="0" xr:uid="{60B28C24-8701-1748-958E-A5F32432D1EA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX196" authorId="0" shapeId="0" xr:uid="{034BE710-A81D-CC45-836F-90AD1DE4FBB2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ196" authorId="0" shapeId="0" xr:uid="{306DA322-F8D2-5A43-8E73-EA893EDCC749}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA196" authorId="0" shapeId="0" xr:uid="{EB72CBCF-6388-F045-AF73-0B9738B579E5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB196" authorId="0" shapeId="0" xr:uid="{1D9A9424-8A6A-0446-9114-63853BDBC952}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC196" authorId="0" shapeId="0" xr:uid="{7A85EDB1-77C4-A845-9C87-B39CE3F36D30}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD196" authorId="0" shapeId="0" xr:uid="{75D61EB3-8E7D-0043-AAC2-ECE63F0A041D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF196" authorId="0" shapeId="0" xr:uid="{66735E63-5A5D-D548-9C15-AD03E8FA97C5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH196" authorId="0" shapeId="0" xr:uid="{8DC7B26C-34BE-8F44-BDB3-8F4C9CF742A1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI196" authorId="0" shapeId="0" xr:uid="{6B9E1ED7-A90B-5B49-86B6-88E8C15A7483}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ196" authorId="0" shapeId="0" xr:uid="{B20987E9-6882-CE4A-9AF4-46200FB77427}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK196" authorId="0" shapeId="0" xr:uid="{57AA4558-E583-F840-A247-8ECBFE1EA404}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL196" authorId="0" shapeId="0" xr:uid="{2CFF73C4-1409-B448-9A90-31EF88B7F0AF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM196" authorId="0" shapeId="0" xr:uid="{FF87F221-CBEB-254A-AD7B-A3CFCE5B37BD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN196" authorId="0" shapeId="0" xr:uid="{95742466-F91F-7A43-B19E-05ECCE1E327D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP196" authorId="0" shapeId="0" xr:uid="{493FC2C5-F42F-EF41-BD00-3AA8C71345CE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ196" authorId="0" shapeId="0" xr:uid="{2BB24261-95F7-454B-BD68-4CAE9ACF2479}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BR196" authorId="0" shapeId="0" xr:uid="{4A30A93C-89BC-504B-9F33-C8D59F99820A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G198" authorId="0" shapeId="0" xr:uid="{1FC353A4-0643-BE42-9B9C-31D5845282E7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I198" authorId="0" shapeId="0" xr:uid="{2E72A50B-C8C0-2D46-82C4-5F8FE550B2D5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J198" authorId="0" shapeId="0" xr:uid="{1714E252-EA22-D54F-A596-520D5A25C8B3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K198" authorId="0" shapeId="0" xr:uid="{AEBFF3E9-9496-9B43-8A41-F27FC4255C34}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L198" authorId="0" shapeId="0" xr:uid="{08B1965C-D238-E649-A3E6-E0E6E8834E60}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M198" authorId="0" shapeId="0" xr:uid="{B2C31FD8-230C-4643-9753-6DCDC9CF4A19}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N198" authorId="0" shapeId="0" xr:uid="{9D055722-BA5F-8741-B39B-8F9C0725E239}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O198" authorId="0" shapeId="0" xr:uid="{D7A6D48E-CAFC-D145-940A-81FB6EC46722}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P198" authorId="0" shapeId="0" xr:uid="{9148CA8D-B815-2347-9552-3C6EEED43C92}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q198" authorId="0" shapeId="0" xr:uid="{7DD9F6B2-8DBD-1745-A6F0-2A647F01F7AE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R198" authorId="0" shapeId="0" xr:uid="{F06F2B38-E835-2A4D-99CB-D130A8430C13}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S198" authorId="0" shapeId="0" xr:uid="{00FD2606-3E5E-E847-850A-597698D803A5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T198" authorId="0" shapeId="0" xr:uid="{F477885E-28DF-1346-8385-23F83C8A641A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U198" authorId="0" shapeId="0" xr:uid="{AA42A4AF-5DD6-0647-878C-55D484574678}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V198" authorId="0" shapeId="0" xr:uid="{34C7FD8D-ABD5-3E43-92F0-A5F155C15CBD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W198" authorId="0" shapeId="0" xr:uid="{AF5C7F29-C86D-EA4A-8776-BF0478B11EBD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X198" authorId="0" shapeId="0" xr:uid="{80346588-C298-D04E-9D08-2DAC08D393C1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y198" authorId="0" shapeId="0" xr:uid="{8475794D-C073-D247-82A0-E608B191C349}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z198" authorId="0" shapeId="0" xr:uid="{A7404330-1A31-2D48-A16A-97FD9AFFD3D0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB198" authorId="0" shapeId="0" xr:uid="{DE6310C3-DD2E-3A47-A7D6-246B3FAB8868}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC198" authorId="0" shapeId="0" xr:uid="{C38C4A8B-0659-EC44-99E9-3A113BA16F31}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD198" authorId="0" shapeId="0" xr:uid="{A8A88833-9A3F-8947-863D-D676A67C953A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE198" authorId="0" shapeId="0" xr:uid="{1F9BCBA8-D211-F844-83E5-B3B49788C0A4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF198" authorId="0" shapeId="0" xr:uid="{CE0A3BD0-300B-6D4B-9713-C18BEDFAF9C6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG198" authorId="0" shapeId="0" xr:uid="{2F3FE0B6-7E04-454A-B37B-E8E3C2903978}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH198" authorId="0" shapeId="0" xr:uid="{02E76E8B-A39F-B74A-94FB-44275852AAE4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI198" authorId="0" shapeId="0" xr:uid="{68794CDD-8641-B545-A883-D95B5BBD85A6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ198" authorId="0" shapeId="0" xr:uid="{94EAE6C8-EE3C-4448-889B-2CD2A373889D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK198" authorId="0" shapeId="0" xr:uid="{79FE414E-DC7A-C54B-B167-2D974EFE3BBC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL198" authorId="0" shapeId="0" xr:uid="{936C762B-F34F-E947-BC39-8D014DFAFBB9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM198" authorId="0" shapeId="0" xr:uid="{AB2B2D4A-0D6E-DD46-90D4-6236CEC3F7FA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN198" authorId="0" shapeId="0" xr:uid="{835055B4-41C6-8D49-8621-B2A6AA473C6E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO198" authorId="0" shapeId="0" xr:uid="{14BC270F-D14B-CE42-9222-61DD75A282D2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP198" authorId="0" shapeId="0" xr:uid="{BF6FEDDC-F78B-2442-88BB-7D4F25C121EA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ198" authorId="0" shapeId="0" xr:uid="{B1D96142-0BB6-0141-BEE2-CA505DDD1E8A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR198" authorId="0" shapeId="0" xr:uid="{218F2D23-EB78-F147-98BB-B183A69FF180}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS198" authorId="0" shapeId="0" xr:uid="{B27871B6-9602-4C4D-8FC7-FC4725F17963}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT198" authorId="0" shapeId="0" xr:uid="{5BBDD54E-7295-2C4C-8604-ADEFB897D128}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU198" authorId="0" shapeId="0" xr:uid="{09B30D54-0DC3-C240-89BE-27A3F9D527D9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV198" authorId="0" shapeId="0" xr:uid="{00C52073-1245-624C-B8B5-342DE40CAB31}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW198" authorId="0" shapeId="0" xr:uid="{C1213022-6C9C-EF4B-81F6-654B04A1953C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX198" authorId="0" shapeId="0" xr:uid="{00A81CAF-E676-D541-9634-5608AAE9AF1B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY198" authorId="0" shapeId="0" xr:uid="{27669A22-EA95-4245-8BDA-336F81251C8D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ198" authorId="0" shapeId="0" xr:uid="{495C45B0-92EE-7543-BB60-46B1FF5AF1F9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA198" authorId="0" shapeId="0" xr:uid="{E3F256F7-97C1-3740-BFED-272C6FEA8531}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB198" authorId="0" shapeId="0" xr:uid="{3E212894-1342-964B-8A2D-CFB80E5E13E3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC198" authorId="0" shapeId="0" xr:uid="{2C7860DE-1B75-1D48-B855-158E96F0E1B2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD198" authorId="0" shapeId="0" xr:uid="{BEFB9B73-7CDE-6A42-ACB1-B9D59D5563C1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF198" authorId="0" shapeId="0" xr:uid="{5AF32AFE-DF06-7249-B5E0-28B89B5B0F87}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG198" authorId="0" shapeId="0" xr:uid="{5679D7D7-0F07-D54B-A9CD-E98AC4969C89}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH198" authorId="0" shapeId="0" xr:uid="{BA6FB38A-750D-344D-8E32-33A98B4BA00B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI198" authorId="0" shapeId="0" xr:uid="{6358BB76-9E22-F943-91A2-5C42F54B6416}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL198" authorId="0" shapeId="0" xr:uid="{6CA05F49-6D94-A645-AAC4-A408D9BC5055}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN198" authorId="0" shapeId="0" xr:uid="{1B690E62-AFC3-384E-BF1A-8D2355BF45DC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO198" authorId="0" shapeId="0" xr:uid="{D6B6BEDB-3B42-CF4B-8BE9-11DA4D6CDF40}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP198" authorId="0" shapeId="0" xr:uid="{18A43735-FA78-0F4E-8C5B-F18DF6729B9A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ198" authorId="0" shapeId="0" xr:uid="{1CD73E2D-DA1E-0548-AAFB-E8F26981B098}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BR198" authorId="0" shapeId="0" xr:uid="{91CE72D8-D715-7049-A876-09C4B5E9FABA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F208" authorId="0" shapeId="0" xr:uid="{D3B69A0D-37D6-CD4F-87DF-310671A48924}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G208" authorId="0" shapeId="0" xr:uid="{83BF3D64-CD67-E54F-B0B8-F9ED775240AD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L208" authorId="0" shapeId="0" xr:uid="{DCA42F5E-C0C6-F04B-8D95-D9A3A29AAF1F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M208" authorId="0" shapeId="0" xr:uid="{B3A20482-A340-9441-8487-67984C1C62B6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q208" authorId="0" shapeId="0" xr:uid="{EC05BC2A-AC2D-B741-A04A-3429885CEF6D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S208" authorId="0" shapeId="0" xr:uid="{EB5444A7-F7E9-5E47-BB14-94BE35F1B067}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U208" authorId="0" shapeId="0" xr:uid="{00C17D9A-435B-3E4E-A686-5044E092F755}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V208" authorId="0" shapeId="0" xr:uid="{105ADF65-A36D-5C4A-A314-A7431551A6D4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y208" authorId="0" shapeId="0" xr:uid="{6A3F3909-0FD4-964C-9944-588AADDC9133}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z208" authorId="0" shapeId="0" xr:uid="{5C2CF67D-E1F1-8447-B45D-EBA6837CCC86}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA208" authorId="0" shapeId="0" xr:uid="{DA89F300-5C44-B24E-A875-6ABC01D82A81}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD208" authorId="0" shapeId="0" xr:uid="{B8AFAA9E-19D3-3442-9832-3BF29F508327}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE208" authorId="0" shapeId="0" xr:uid="{A6722B4C-4329-BF4B-AFF3-976C8670F061}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH208" authorId="0" shapeId="0" xr:uid="{EA4C703F-FD92-3146-8D87-B3D4F84492DD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI208" authorId="0" shapeId="0" xr:uid="{6FC8A724-8759-EF42-B8F1-6709E618315C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK208" authorId="0" shapeId="0" xr:uid="{2052DC27-6F37-E540-A571-40DAE1C28039}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN208" authorId="0" shapeId="0" xr:uid="{28CFEB60-ED1E-1048-89DF-47B39FC2F101}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO208" authorId="0" shapeId="0" xr:uid="{CDF55ADB-EE09-8B4B-A366-2C32A4E68483}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP208" authorId="0" shapeId="0" xr:uid="{68C6AC49-9143-FF42-872D-9BC348EFF2F1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ208" authorId="0" shapeId="0" xr:uid="{D7B25958-2B0A-5545-9BC3-8E4C860BAD4C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU208" authorId="0" shapeId="0" xr:uid="{D41E04A2-7D1E-3D4D-95E3-80198B623C9D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW208" authorId="0" shapeId="0" xr:uid="{6E04B6B5-78CC-9C43-AE2D-B701BFCAE22D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX208" authorId="0" shapeId="0" xr:uid="{E26999B4-A0FD-E949-A069-6D0514F4442C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ208" authorId="0" shapeId="0" xr:uid="{C8A15AEB-6953-3143-B24C-B46FE8087E79}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD208" authorId="0" shapeId="0" xr:uid="{AA15C051-3D0F-604B-A06F-B7929E992A9D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE208" authorId="0" shapeId="0" xr:uid="{DACEC531-1E44-E74C-A434-7920D5767325}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF208" authorId="0" shapeId="0" xr:uid="{E081F8FD-B826-6942-8002-541BFFAD273E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG208" authorId="0" shapeId="0" xr:uid="{CE1923D2-ED38-A542-BCFA-E6F726742C04}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH208" authorId="0" shapeId="0" xr:uid="{41102AF0-0C00-274C-84B2-01202B0BD828}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI208" authorId="0" shapeId="0" xr:uid="{F4685BDB-CEEA-BD4B-99D5-3FF974ECA4F7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ208" authorId="0" shapeId="0" xr:uid="{798B877E-0B34-5D40-9B3A-26248AD755AF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK208" authorId="0" shapeId="0" xr:uid="{404FDFC5-AB21-6A41-BCDA-E4836540F908}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL208" authorId="0" shapeId="0" xr:uid="{1AB60334-099E-AE4F-9237-A33C0D9A6E3A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM208" authorId="0" shapeId="0" xr:uid="{ABB56D28-FC6D-D24E-8A14-EA3360793BFA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN208" authorId="0" shapeId="0" xr:uid="{D2BC8EA0-FA1C-6F4C-B852-CA8DB427CD97}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO208" authorId="0" shapeId="0" xr:uid="{EC7AFED3-1763-254E-B3D5-CCA5ED525EA9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP208" authorId="0" shapeId="0" xr:uid="{CDB9BED6-C25F-7E49-BFA8-143930AF6042}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ208" authorId="0" shapeId="0" xr:uid="{5769B15A-1D77-704E-A438-DFB6A205A1BF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BR208" authorId="0" shapeId="0" xr:uid="{2A6EF520-2A36-B64A-8467-8503C35DF9F2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10689" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12459" uniqueCount="552">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -5597,6 +8565,198 @@
   </si>
   <si>
     <t>이선주</t>
+  </si>
+  <si>
+    <t>hms000304@gmail.com</t>
+  </si>
+  <si>
+    <t>사학과</t>
+  </si>
+  <si>
+    <t>현민수</t>
+  </si>
+  <si>
+    <t>kmg0187@naver.com</t>
+  </si>
+  <si>
+    <t>김민지</t>
+  </si>
+  <si>
+    <t>uhan0802@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠</t>
+  </si>
+  <si>
+    <t>이유한</t>
+  </si>
+  <si>
+    <t>jmkkom@naver.com</t>
+  </si>
+  <si>
+    <t>전민균</t>
+  </si>
+  <si>
+    <t>lg01022928122@gmail.com</t>
+  </si>
+  <si>
+    <t>권주용</t>
+  </si>
+  <si>
+    <t>ggamy3637@naver.com</t>
+  </si>
+  <si>
+    <t>러시아학과</t>
+  </si>
+  <si>
+    <t>최효윤</t>
+  </si>
+  <si>
+    <t>twenty__dec@naver.com</t>
+  </si>
+  <si>
+    <t>채희주</t>
+  </si>
+  <si>
+    <t>kcwel1109@gmail.com</t>
+  </si>
+  <si>
+    <t>고미연</t>
+  </si>
+  <si>
+    <t>csm06125@naver.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이</t>
+  </si>
+  <si>
+    <t>박근태</t>
+  </si>
+  <si>
+    <t>yeel6945@naver.com</t>
+  </si>
+  <si>
+    <t>이수빈</t>
+  </si>
+  <si>
+    <t>tjwjddn1130@gmail.com</t>
+  </si>
+  <si>
+    <t>서정우</t>
+  </si>
+  <si>
+    <t>bvc023@naver.com</t>
+  </si>
+  <si>
+    <t>김수영</t>
+  </si>
+  <si>
+    <t>ydchufd@naver.com</t>
+  </si>
+  <si>
+    <t>정유민</t>
+  </si>
+  <si>
+    <t>lion5166@naver.com</t>
+  </si>
+  <si>
+    <t>김정연</t>
+  </si>
+  <si>
+    <t>donghyun6652@gmail.com</t>
+  </si>
+  <si>
+    <t>한동현</t>
+  </si>
+  <si>
+    <t>ms071207@naver.com</t>
+  </si>
+  <si>
+    <t>gusquddus20@naver.com</t>
+  </si>
+  <si>
+    <t>현병연</t>
+  </si>
+  <si>
+    <t>jione0831@naver.com</t>
+  </si>
+  <si>
+    <t>윤지원</t>
+  </si>
+  <si>
+    <t>hanyeong09@naver.com</t>
+  </si>
+  <si>
+    <t>이한영</t>
+  </si>
+  <si>
+    <t>sinyewon12@gamail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">신예원 </t>
+  </si>
+  <si>
+    <t>raon2812@naver.com</t>
+  </si>
+  <si>
+    <t>최라온</t>
+  </si>
+  <si>
+    <t>t01094887068@gmail.com</t>
+  </si>
+  <si>
+    <t>손민재</t>
+  </si>
+  <si>
+    <t>na1448@naver.com</t>
+  </si>
+  <si>
+    <t>강나현</t>
+  </si>
+  <si>
+    <t>his86814189@gmail.com</t>
+  </si>
+  <si>
+    <t>융합과학수사학과</t>
+  </si>
+  <si>
+    <t>황인성</t>
+  </si>
+  <si>
+    <t>123plokml123@gmail.com</t>
+  </si>
+  <si>
+    <t>지현배</t>
+  </si>
+  <si>
+    <t>houng5011@naver.com</t>
+  </si>
+  <si>
+    <t>홍성원</t>
+  </si>
+  <si>
+    <t>ginny1024@naver.com</t>
+  </si>
+  <si>
+    <t>김희원</t>
+  </si>
+  <si>
+    <t>riwon1226@gmail.com</t>
+  </si>
+  <si>
+    <t>김리원</t>
+  </si>
+  <si>
+    <t>baeksa01@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>서휘도</t>
+  </si>
+  <si>
+    <t>smarthulk0318@naver.com</t>
+  </si>
+  <si>
+    <t>조성민</t>
   </si>
 </sst>
 </file>
@@ -5642,15 +8802,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -5877,11 +9049,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5927,6 +9114,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5978,7 +9174,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:BQ181">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:BQ211">
   <tableColumns count="69">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -6255,11 +9451,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ181"/>
+  <dimension ref="A1:BR211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E189" sqref="E189"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -43109,7 +46305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="7">
         <v>45610.735976747688</v>
       </c>
@@ -43318,7 +46514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4">
         <v>45610.745802719903</v>
       </c>
@@ -43527,7 +46723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="7">
         <v>45610.775846655088</v>
       </c>
@@ -43736,7 +46932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4">
         <v>45610.806278981487</v>
       </c>
@@ -43945,7 +47141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="14">
         <v>45610.806499259255</v>
       </c>
@@ -44152,6 +47348,6366 @@
       </c>
       <c r="BQ181" s="16">
         <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="4">
+        <v>45610.821324826393</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D182" s="5">
+        <v>20191110</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I182" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J182" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L182" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N182" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O182" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P182" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q182" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R182" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S182" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T182" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X182" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB182" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC182" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF182" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH182" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI182" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ182" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK182" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN182" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP182" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR182" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV182" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW182" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ182" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC182" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD182" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE182" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF182" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG182" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH182" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI182" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ182" s="5">
+        <v>8</v>
+      </c>
+      <c r="BK182" s="5">
+        <v>8</v>
+      </c>
+      <c r="BL182" s="5">
+        <v>20</v>
+      </c>
+      <c r="BM182" s="5">
+        <v>12</v>
+      </c>
+      <c r="BN182" s="5">
+        <v>17</v>
+      </c>
+      <c r="BO182" s="5">
+        <v>14</v>
+      </c>
+      <c r="BP182" s="5">
+        <v>15</v>
+      </c>
+      <c r="BQ182" s="6">
+        <v>11</v>
+      </c>
+      <c r="BR182" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="7">
+        <v>45610.831614155089</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D183" s="8">
+        <v>20203802</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M183" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P183" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="T183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="V183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="W183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z183" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI183" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ183" s="8">
+        <v>12</v>
+      </c>
+      <c r="BK183" s="8">
+        <v>9</v>
+      </c>
+      <c r="BL183" s="8">
+        <v>14</v>
+      </c>
+      <c r="BM183" s="8">
+        <v>18</v>
+      </c>
+      <c r="BN183" s="8">
+        <v>17</v>
+      </c>
+      <c r="BO183" s="8">
+        <v>15</v>
+      </c>
+      <c r="BP183" s="8">
+        <v>15</v>
+      </c>
+      <c r="BQ183" s="9">
+        <v>20</v>
+      </c>
+      <c r="BR183" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="4">
+        <v>45610.840140219909</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D184" s="5">
+        <v>20212555</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I184" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K184" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L184" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T184" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U184" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V184" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X184" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y184" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z184" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA184" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC184" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG184" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH184" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK184" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO184" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP184" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ184" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS184" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW184" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY184" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ184" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD184" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF184" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ184" s="5">
+        <v>11</v>
+      </c>
+      <c r="BK184" s="5">
+        <v>7</v>
+      </c>
+      <c r="BL184" s="5">
+        <v>11</v>
+      </c>
+      <c r="BM184" s="5">
+        <v>16</v>
+      </c>
+      <c r="BN184" s="5">
+        <v>14</v>
+      </c>
+      <c r="BO184" s="5">
+        <v>15</v>
+      </c>
+      <c r="BP184" s="5">
+        <v>14</v>
+      </c>
+      <c r="BQ184" s="6">
+        <v>14</v>
+      </c>
+      <c r="BR184" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="7">
+        <v>45610.842360810188</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D185" s="8">
+        <v>20203425</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H185" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I185" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J185" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K185" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M185" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O185" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P185" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="S185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="V185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="W185" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X185" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y185" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z185" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC185" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD185" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE185" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG185" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH185" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK185" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM185" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN185" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO185" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ185" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS185" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU185" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV185" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX185" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA185" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC185" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE185" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF185" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG185" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH185" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI185" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ185" s="8">
+        <v>32</v>
+      </c>
+      <c r="BK185" s="8">
+        <v>19</v>
+      </c>
+      <c r="BL185" s="8">
+        <v>27</v>
+      </c>
+      <c r="BM185" s="8">
+        <v>24</v>
+      </c>
+      <c r="BN185" s="8">
+        <v>27</v>
+      </c>
+      <c r="BO185" s="8">
+        <v>30</v>
+      </c>
+      <c r="BP185" s="8">
+        <v>35</v>
+      </c>
+      <c r="BQ185" s="9">
+        <v>18</v>
+      </c>
+      <c r="BR185" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="4">
+        <v>45610.846127199075</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D186" s="5">
+        <v>20215109</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I186" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M186" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N186" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O186" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U186" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V186" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="W186" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X186" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y186" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z186" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC186" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD186" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE186" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG186" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK186" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL186" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP186" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS186" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT186" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU186" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW186" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX186" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA186" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB186" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC186" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH186" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI186" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ186" s="5">
+        <v>18</v>
+      </c>
+      <c r="BK186" s="5">
+        <v>20</v>
+      </c>
+      <c r="BL186" s="5">
+        <v>34</v>
+      </c>
+      <c r="BM186" s="5">
+        <v>29</v>
+      </c>
+      <c r="BN186" s="5">
+        <v>27</v>
+      </c>
+      <c r="BO186" s="5">
+        <v>35</v>
+      </c>
+      <c r="BP186" s="5">
+        <v>32</v>
+      </c>
+      <c r="BQ186" s="6">
+        <v>10</v>
+      </c>
+      <c r="BR186" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="7">
+        <v>45610.883131377312</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="D187" s="8">
+        <v>20201733</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M187" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O187" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P187" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q187" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="S187" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T187" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U187" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="V187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="W187" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z187" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA187" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB187" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE187" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF187" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH187" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI187" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ187" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN187" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ187" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT187" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU187" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV187" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB187" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC187" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF187" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG187" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH187" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI187" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ187" s="8">
+        <v>32</v>
+      </c>
+      <c r="BK187" s="8">
+        <v>23</v>
+      </c>
+      <c r="BL187" s="8">
+        <v>28</v>
+      </c>
+      <c r="BM187" s="8">
+        <v>33</v>
+      </c>
+      <c r="BN187" s="8">
+        <v>31</v>
+      </c>
+      <c r="BO187" s="8">
+        <v>24</v>
+      </c>
+      <c r="BP187" s="8">
+        <v>30</v>
+      </c>
+      <c r="BQ187" s="9">
+        <v>29</v>
+      </c>
+      <c r="BR187" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="188" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="4">
+        <v>45610.884691840278</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D188" s="5">
+        <v>20243959</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I188" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J188" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K188" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L188" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M188" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N188" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O188" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P188" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q188" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R188" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S188" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T188" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U188" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V188" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="W188" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X188" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y188" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z188" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA188" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB188" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC188" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD188" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE188" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF188" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG188" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH188" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI188" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ188" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK188" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL188" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM188" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN188" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO188" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP188" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ188" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR188" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS188" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT188" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU188" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV188" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW188" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX188" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY188" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ188" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA188" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB188" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC188" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD188" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE188" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF188" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG188" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH188" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI188" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ188" s="5">
+        <v>28</v>
+      </c>
+      <c r="BK188" s="5">
+        <v>19</v>
+      </c>
+      <c r="BL188" s="5">
+        <v>18</v>
+      </c>
+      <c r="BM188" s="5">
+        <v>18</v>
+      </c>
+      <c r="BN188" s="5">
+        <v>27</v>
+      </c>
+      <c r="BO188" s="5">
+        <v>22</v>
+      </c>
+      <c r="BP188" s="5">
+        <v>25</v>
+      </c>
+      <c r="BQ188" s="6">
+        <v>21</v>
+      </c>
+      <c r="BR188" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="189" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="7">
+        <v>45610.901907719905</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D189" s="8">
+        <v>20246204</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G189" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H189" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I189" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J189" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K189" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L189" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M189" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N189" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O189" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P189" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q189" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R189" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S189" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T189" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U189" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="V189" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="W189" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X189" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y189" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z189" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA189" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB189" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC189" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD189" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE189" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF189" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG189" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH189" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI189" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ189" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK189" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL189" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM189" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN189" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO189" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP189" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ189" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR189" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS189" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT189" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU189" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV189" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW189" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX189" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY189" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ189" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA189" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB189" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC189" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD189" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE189" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF189" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG189" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH189" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI189" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ189" s="8">
+        <v>27</v>
+      </c>
+      <c r="BK189" s="8">
+        <v>12</v>
+      </c>
+      <c r="BL189" s="8">
+        <v>25</v>
+      </c>
+      <c r="BM189" s="8">
+        <v>17</v>
+      </c>
+      <c r="BN189" s="8">
+        <v>28</v>
+      </c>
+      <c r="BO189" s="8">
+        <v>32</v>
+      </c>
+      <c r="BP189" s="8">
+        <v>31</v>
+      </c>
+      <c r="BQ189" s="9">
+        <v>16</v>
+      </c>
+      <c r="BR189" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="4">
+        <v>45610.93053489583</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D190" s="5">
+        <v>20203321</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I190" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J190" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K190" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L190" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M190" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N190" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O190" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P190" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q190" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R190" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S190" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T190" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U190" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V190" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="W190" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X190" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y190" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z190" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA190" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB190" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC190" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD190" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE190" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF190" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG190" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH190" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI190" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ190" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK190" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL190" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM190" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN190" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO190" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP190" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ190" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR190" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS190" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT190" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU190" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV190" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW190" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX190" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY190" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ190" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA190" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB190" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC190" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD190" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE190" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF190" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG190" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH190" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI190" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ190" s="5">
+        <v>17</v>
+      </c>
+      <c r="BK190" s="5">
+        <v>13</v>
+      </c>
+      <c r="BL190" s="5">
+        <v>23</v>
+      </c>
+      <c r="BM190" s="5">
+        <v>19</v>
+      </c>
+      <c r="BN190" s="5">
+        <v>20</v>
+      </c>
+      <c r="BO190" s="5">
+        <v>21</v>
+      </c>
+      <c r="BP190" s="5">
+        <v>28</v>
+      </c>
+      <c r="BQ190" s="6">
+        <v>21</v>
+      </c>
+      <c r="BR190" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="7">
+        <v>45610.968476331022</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D191" s="8">
+        <v>20203635</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M191" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="S191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U191" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="V191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB191" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE191" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF191" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ191" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY191" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB191" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF191" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ191" s="8">
+        <v>20</v>
+      </c>
+      <c r="BK191" s="8">
+        <v>23</v>
+      </c>
+      <c r="BL191" s="8">
+        <v>17</v>
+      </c>
+      <c r="BM191" s="8">
+        <v>20</v>
+      </c>
+      <c r="BN191" s="8">
+        <v>15</v>
+      </c>
+      <c r="BO191" s="8">
+        <v>21</v>
+      </c>
+      <c r="BP191" s="8">
+        <v>22</v>
+      </c>
+      <c r="BQ191" s="9">
+        <v>19</v>
+      </c>
+      <c r="BR191" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="4">
+        <v>45610.932659699072</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D192" s="5">
+        <v>20213064</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I192" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K192" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L192" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S192" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T192" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA192" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH192" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI192" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO192" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ192" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW192" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY192" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ192" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ192" s="5">
+        <v>7</v>
+      </c>
+      <c r="BK192" s="5">
+        <v>19</v>
+      </c>
+      <c r="BL192" s="5">
+        <v>18</v>
+      </c>
+      <c r="BM192" s="5">
+        <v>16</v>
+      </c>
+      <c r="BN192" s="5">
+        <v>16</v>
+      </c>
+      <c r="BO192" s="5">
+        <v>21</v>
+      </c>
+      <c r="BP192" s="5">
+        <v>24</v>
+      </c>
+      <c r="BQ192" s="6">
+        <v>11</v>
+      </c>
+      <c r="BR192" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="7">
+        <v>45610.934839178241</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D193" s="8">
+        <v>20217035</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H193" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I193" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K193" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L193" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R193" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="S193" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="T193" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="V193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="W193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y193" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA193" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB193" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF193" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG193" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI193" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN193" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ193" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR193" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY193" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ193" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA193" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD193" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH193" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ193" s="8">
+        <v>25</v>
+      </c>
+      <c r="BK193" s="8">
+        <v>20</v>
+      </c>
+      <c r="BL193" s="8">
+        <v>35</v>
+      </c>
+      <c r="BM193" s="8">
+        <v>7</v>
+      </c>
+      <c r="BN193" s="8">
+        <v>18</v>
+      </c>
+      <c r="BO193" s="8">
+        <v>31</v>
+      </c>
+      <c r="BP193" s="8">
+        <v>21</v>
+      </c>
+      <c r="BQ193" s="9">
+        <v>17</v>
+      </c>
+      <c r="BR193" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="4">
+        <v>45610.951788703707</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D194" s="5">
+        <v>20242363</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I194" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J194" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K194" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L194" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M194" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N194" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O194" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P194" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q194" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R194" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S194" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T194" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U194" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V194" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W194" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X194" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y194" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z194" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA194" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB194" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC194" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD194" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE194" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF194" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG194" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH194" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI194" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ194" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK194" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL194" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM194" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN194" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO194" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP194" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ194" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR194" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS194" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT194" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU194" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV194" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW194" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX194" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY194" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ194" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA194" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB194" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC194" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD194" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE194" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF194" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG194" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH194" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI194" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ194" s="5">
+        <v>15</v>
+      </c>
+      <c r="BK194" s="5">
+        <v>13</v>
+      </c>
+      <c r="BL194" s="5">
+        <v>19</v>
+      </c>
+      <c r="BM194" s="5">
+        <v>23</v>
+      </c>
+      <c r="BN194" s="5">
+        <v>16</v>
+      </c>
+      <c r="BO194" s="5">
+        <v>27</v>
+      </c>
+      <c r="BP194" s="5">
+        <v>29</v>
+      </c>
+      <c r="BQ194" s="6">
+        <v>14</v>
+      </c>
+      <c r="BR194" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="7">
+        <v>45610.96168143519</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D195" s="8">
+        <v>20243612</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L195" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N195" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="T195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="V195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="W195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z195" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE195" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK195" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR195" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS195" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW195" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX195" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE195" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF195" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG195" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI195" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ195" s="8">
+        <v>21</v>
+      </c>
+      <c r="BK195" s="8">
+        <v>27</v>
+      </c>
+      <c r="BL195" s="8">
+        <v>22</v>
+      </c>
+      <c r="BM195" s="8">
+        <v>30</v>
+      </c>
+      <c r="BN195" s="8">
+        <v>20</v>
+      </c>
+      <c r="BO195" s="8">
+        <v>25</v>
+      </c>
+      <c r="BP195" s="8">
+        <v>21</v>
+      </c>
+      <c r="BQ195" s="9">
+        <v>21</v>
+      </c>
+      <c r="BR195" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="4">
+        <v>45611.701791145832</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D196" s="5">
+        <v>20246300</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J196" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K196" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L196" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O196" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S196" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T196" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W196" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X196" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA196" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB196" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE196" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF196" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH196" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI196" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ196" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN196" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP196" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ196" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR196" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV196" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY196" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ196" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD196" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE196" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF196" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG196" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH196" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI196" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ196" s="5">
+        <v>7</v>
+      </c>
+      <c r="BK196" s="5">
+        <v>20</v>
+      </c>
+      <c r="BL196" s="5">
+        <v>19</v>
+      </c>
+      <c r="BM196" s="5">
+        <v>9</v>
+      </c>
+      <c r="BN196" s="5">
+        <v>15</v>
+      </c>
+      <c r="BO196" s="5">
+        <v>21</v>
+      </c>
+      <c r="BP196" s="5">
+        <v>19</v>
+      </c>
+      <c r="BQ196" s="6">
+        <v>10</v>
+      </c>
+      <c r="BR196" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="7">
+        <v>45611.012499733799</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D197" s="8">
+        <v>20193644</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H197" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I197" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J197" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K197" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L197" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M197" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O197" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P197" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q197" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R197" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T197" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="V197" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="W197" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X197" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA197" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB197" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD197" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI197" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ197" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK197" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL197" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM197" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO197" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP197" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ197" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR197" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX197" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY197" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ197" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD197" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE197" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF197" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH197" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ197" s="8">
+        <v>19</v>
+      </c>
+      <c r="BK197" s="8">
+        <v>18</v>
+      </c>
+      <c r="BL197" s="8">
+        <v>20</v>
+      </c>
+      <c r="BM197" s="8">
+        <v>21</v>
+      </c>
+      <c r="BN197" s="8">
+        <v>19</v>
+      </c>
+      <c r="BO197" s="8">
+        <v>25</v>
+      </c>
+      <c r="BP197" s="8">
+        <v>25</v>
+      </c>
+      <c r="BQ197" s="9">
+        <v>19</v>
+      </c>
+      <c r="BR197" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="4">
+        <v>45611.404851446758</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D198" s="5">
+        <v>20227106</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O198" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W198" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y198" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z198" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA198" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE198" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN198" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX198" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE198" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH198" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI198" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ198" s="5">
+        <v>22</v>
+      </c>
+      <c r="BK198" s="5">
+        <v>24</v>
+      </c>
+      <c r="BL198" s="5">
+        <v>15</v>
+      </c>
+      <c r="BM198" s="5">
+        <v>16</v>
+      </c>
+      <c r="BN198" s="5">
+        <v>19</v>
+      </c>
+      <c r="BO198" s="5">
+        <v>20</v>
+      </c>
+      <c r="BP198" s="5">
+        <v>17</v>
+      </c>
+      <c r="BQ198" s="6">
+        <v>18</v>
+      </c>
+      <c r="BR198" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="7">
+        <v>45611.139260428245</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D199" s="8">
+        <v>20246262</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H199" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I199" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J199" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K199" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L199" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M199" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P199" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q199" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T199" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="V199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="W199" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB199" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC199" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD199" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE199" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG199" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ199" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK199" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL199" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM199" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN199" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO199" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP199" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS199" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT199" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU199" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV199" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW199" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY199" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ199" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD199" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE199" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF199" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG199" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH199" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI199" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ199" s="8">
+        <v>24</v>
+      </c>
+      <c r="BK199" s="8">
+        <v>23</v>
+      </c>
+      <c r="BL199" s="8">
+        <v>19</v>
+      </c>
+      <c r="BM199" s="8">
+        <v>25</v>
+      </c>
+      <c r="BN199" s="8">
+        <v>23</v>
+      </c>
+      <c r="BO199" s="8">
+        <v>22</v>
+      </c>
+      <c r="BP199" s="8">
+        <v>18</v>
+      </c>
+      <c r="BQ199" s="9">
+        <v>20</v>
+      </c>
+      <c r="BR199" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="4">
+        <v>45611.417399525468</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D200" s="5">
+        <v>20203423</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K200" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L200" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M200" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O200" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q200" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R200" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T200" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U200" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="W200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y200" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z200" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA200" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC200" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD200" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI200" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL200" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM200" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO200" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ200" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS200" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT200" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU200" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV200" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW200" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX200" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY200" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ200" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA200" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB200" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC200" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE200" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG200" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH200" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI200" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ200" s="5">
+        <v>16</v>
+      </c>
+      <c r="BK200" s="5">
+        <v>16</v>
+      </c>
+      <c r="BL200" s="5">
+        <v>21</v>
+      </c>
+      <c r="BM200" s="5">
+        <v>16</v>
+      </c>
+      <c r="BN200" s="5">
+        <v>19</v>
+      </c>
+      <c r="BO200" s="5">
+        <v>25</v>
+      </c>
+      <c r="BP200" s="5">
+        <v>24</v>
+      </c>
+      <c r="BQ200" s="6">
+        <v>13</v>
+      </c>
+      <c r="BR200" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="7">
+        <v>45611.501873483794</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D201" s="8">
+        <v>20243821</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I201" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K201" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M201" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P201" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="T201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="V201" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="W201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y201" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z201" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG201" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO201" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ201" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS201" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT201" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX201" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY201" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA201" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD201" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE201" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI201" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ201" s="8">
+        <v>21</v>
+      </c>
+      <c r="BK201" s="8">
+        <v>21</v>
+      </c>
+      <c r="BL201" s="8">
+        <v>24</v>
+      </c>
+      <c r="BM201" s="8">
+        <v>25</v>
+      </c>
+      <c r="BN201" s="8">
+        <v>21</v>
+      </c>
+      <c r="BO201" s="8">
+        <v>24</v>
+      </c>
+      <c r="BP201" s="8">
+        <v>21</v>
+      </c>
+      <c r="BQ201" s="9">
+        <v>19</v>
+      </c>
+      <c r="BR201" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="4">
+        <v>45611.580326620373</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D202" s="5">
+        <v>20242751</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L202" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M202" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P202" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q202" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S202" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U202" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y202" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z202" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA202" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC202" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD202" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE202" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF202" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG202" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH202" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI202" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL202" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM202" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN202" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP202" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR202" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS202" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT202" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU202" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX202" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY202" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA202" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC202" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE202" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG202" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH202" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI202" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ202" s="5">
+        <v>24</v>
+      </c>
+      <c r="BK202" s="5">
+        <v>23</v>
+      </c>
+      <c r="BL202" s="5">
+        <v>22</v>
+      </c>
+      <c r="BM202" s="5">
+        <v>21</v>
+      </c>
+      <c r="BN202" s="5">
+        <v>24</v>
+      </c>
+      <c r="BO202" s="5">
+        <v>30</v>
+      </c>
+      <c r="BP202" s="5">
+        <v>26</v>
+      </c>
+      <c r="BQ202" s="6">
+        <v>16</v>
+      </c>
+      <c r="BR202" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="7">
+        <v>45611.587337106481</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D203" s="8">
+        <v>20242122</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G203" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K203" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L203" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="S203" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T203" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="V203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="W203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA203" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB203" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF203" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI203" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ203" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ203" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW203" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY203" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ203" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD203" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF203" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI203" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ203" s="8">
+        <v>7</v>
+      </c>
+      <c r="BK203" s="8">
+        <v>10</v>
+      </c>
+      <c r="BL203" s="8">
+        <v>11</v>
+      </c>
+      <c r="BM203" s="8">
+        <v>10</v>
+      </c>
+      <c r="BN203" s="8">
+        <v>16</v>
+      </c>
+      <c r="BO203" s="8">
+        <v>20</v>
+      </c>
+      <c r="BP203" s="8">
+        <v>16</v>
+      </c>
+      <c r="BQ203" s="9">
+        <v>7</v>
+      </c>
+      <c r="BR203" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="4">
+        <v>45611.597561875002</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D204" s="5">
+        <v>20243601</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J204" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K204" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M204" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N204" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O204" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q204" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S204" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T204" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V204" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W204" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y204" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z204" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB204" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC204" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD204" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE204" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF204" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG204" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH204" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI204" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL204" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN204" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP204" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ204" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS204" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT204" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV204" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX204" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB204" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC204" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE204" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH204" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI204" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ204" s="5">
+        <v>15</v>
+      </c>
+      <c r="BK204" s="5">
+        <v>16</v>
+      </c>
+      <c r="BL204" s="5">
+        <v>17</v>
+      </c>
+      <c r="BM204" s="5">
+        <v>15</v>
+      </c>
+      <c r="BN204" s="5">
+        <v>16</v>
+      </c>
+      <c r="BO204" s="5">
+        <v>17</v>
+      </c>
+      <c r="BP204" s="5">
+        <v>16</v>
+      </c>
+      <c r="BQ204" s="6">
+        <v>17</v>
+      </c>
+      <c r="BR204" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="7">
+        <v>45611.604165625002</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D205" s="8">
+        <v>20246942</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G205" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H205" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I205" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J205" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K205" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L205" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M205" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N205" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O205" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P205" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q205" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R205" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S205" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T205" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U205" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="V205" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W205" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X205" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y205" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z205" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA205" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB205" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC205" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD205" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE205" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF205" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG205" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH205" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI205" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ205" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK205" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL205" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM205" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN205" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO205" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP205" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ205" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR205" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS205" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT205" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU205" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV205" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW205" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX205" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY205" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ205" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA205" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB205" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC205" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD205" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE205" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF205" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG205" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH205" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI205" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ205" s="8">
+        <v>10</v>
+      </c>
+      <c r="BK205" s="8">
+        <v>35</v>
+      </c>
+      <c r="BL205" s="8">
+        <v>15</v>
+      </c>
+      <c r="BM205" s="8">
+        <v>20</v>
+      </c>
+      <c r="BN205" s="8">
+        <v>13</v>
+      </c>
+      <c r="BO205" s="8">
+        <v>10</v>
+      </c>
+      <c r="BP205" s="8">
+        <v>14</v>
+      </c>
+      <c r="BQ205" s="9">
+        <v>9</v>
+      </c>
+      <c r="BR205" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="4">
+        <v>45611.633606678239</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D206" s="5">
+        <v>20245266</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I206" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J206" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L206" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M206" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N206" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W206" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X206" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC206" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD206" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH206" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI206" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK206" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL206" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO206" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU206" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH206" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ206" s="5">
+        <v>15</v>
+      </c>
+      <c r="BK206" s="5">
+        <v>22</v>
+      </c>
+      <c r="BL206" s="5">
+        <v>19</v>
+      </c>
+      <c r="BM206" s="5">
+        <v>20</v>
+      </c>
+      <c r="BN206" s="5">
+        <v>22</v>
+      </c>
+      <c r="BO206" s="5">
+        <v>22</v>
+      </c>
+      <c r="BP206" s="5">
+        <v>19</v>
+      </c>
+      <c r="BQ206" s="6">
+        <v>22</v>
+      </c>
+      <c r="BR206" s="17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="7">
+        <v>45611.638372986112</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D207" s="8">
+        <v>20243741</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G207" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H207" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I207" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J207" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K207" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L207" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M207" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N207" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O207" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P207" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q207" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R207" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S207" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T207" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U207" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="V207" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W207" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X207" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y207" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z207" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA207" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB207" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC207" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD207" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE207" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF207" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG207" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH207" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI207" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ207" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK207" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL207" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM207" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN207" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO207" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP207" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ207" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR207" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS207" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT207" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU207" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV207" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW207" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX207" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY207" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ207" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA207" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB207" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC207" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD207" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE207" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF207" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG207" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH207" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI207" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ207" s="8">
+        <v>19</v>
+      </c>
+      <c r="BK207" s="8">
+        <v>35</v>
+      </c>
+      <c r="BL207" s="8">
+        <v>22</v>
+      </c>
+      <c r="BM207" s="8">
+        <v>23</v>
+      </c>
+      <c r="BN207" s="8">
+        <v>24</v>
+      </c>
+      <c r="BO207" s="8">
+        <v>34</v>
+      </c>
+      <c r="BP207" s="8">
+        <v>35</v>
+      </c>
+      <c r="BQ207" s="9">
+        <v>34</v>
+      </c>
+      <c r="BR207" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="208" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="4">
+        <v>45611.694194004631</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D208" s="5">
+        <v>20246233</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L208" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M208" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q208" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S208" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U208" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V208" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y208" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z208" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA208" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD208" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE208" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH208" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI208" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK208" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN208" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO208" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP208" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ208" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU208" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW208" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX208" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ208" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC208" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD208" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE208" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF208" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG208" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH208" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI208" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ208" s="5">
+        <v>24</v>
+      </c>
+      <c r="BK208" s="5">
+        <v>26</v>
+      </c>
+      <c r="BL208" s="5">
+        <v>23</v>
+      </c>
+      <c r="BM208" s="5">
+        <v>24</v>
+      </c>
+      <c r="BN208" s="5">
+        <v>19</v>
+      </c>
+      <c r="BO208" s="5">
+        <v>22</v>
+      </c>
+      <c r="BP208" s="5">
+        <v>20</v>
+      </c>
+      <c r="BQ208" s="6">
+        <v>24</v>
+      </c>
+      <c r="BR208" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="7">
+        <v>45611.674904120373</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D209" s="8">
+        <v>20243704</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="F209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G209" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M209" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O209" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q209" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S209" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="T209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="V209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="W209" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y209" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z209" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB209" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC209" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD209" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE209" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG209" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ209" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK209" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM209" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO209" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS209" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU209" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX209" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ209" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA209" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB209" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC209" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD209" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE209" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF209" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG209" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH209" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI209" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ209" s="8">
+        <v>26</v>
+      </c>
+      <c r="BK209" s="8">
+        <v>11</v>
+      </c>
+      <c r="BL209" s="8">
+        <v>26</v>
+      </c>
+      <c r="BM209" s="8">
+        <v>16</v>
+      </c>
+      <c r="BN209" s="8">
+        <v>23</v>
+      </c>
+      <c r="BO209" s="8">
+        <v>24</v>
+      </c>
+      <c r="BP209" s="8">
+        <v>21</v>
+      </c>
+      <c r="BQ209" s="9">
+        <v>13</v>
+      </c>
+      <c r="BR209" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="4">
+        <v>45611.688492743051</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D210" s="5">
+        <v>20205188</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I210" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J210" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K210" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L210" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M210" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N210" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O210" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P210" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q210" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R210" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S210" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T210" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U210" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V210" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="W210" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X210" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y210" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z210" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA210" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB210" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC210" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD210" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE210" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF210" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG210" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH210" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI210" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ210" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK210" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL210" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM210" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN210" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO210" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP210" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ210" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR210" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS210" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT210" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU210" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV210" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW210" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX210" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY210" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ210" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA210" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB210" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC210" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD210" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE210" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF210" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG210" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH210" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI210" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ210" s="5">
+        <v>15</v>
+      </c>
+      <c r="BK210" s="5">
+        <v>13</v>
+      </c>
+      <c r="BL210" s="5">
+        <v>23</v>
+      </c>
+      <c r="BM210" s="5">
+        <v>21</v>
+      </c>
+      <c r="BN210" s="5">
+        <v>18</v>
+      </c>
+      <c r="BO210" s="5">
+        <v>20</v>
+      </c>
+      <c r="BP210" s="5">
+        <v>21</v>
+      </c>
+      <c r="BQ210" s="6">
+        <v>10</v>
+      </c>
+      <c r="BR210" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="14">
+        <v>45611.699714212962</v>
+      </c>
+      <c r="B211" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C211" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D211" s="15">
+        <v>20241095</v>
+      </c>
+      <c r="E211" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="F211" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G211" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H211" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K211" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="M211" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="N211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="O211" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P211" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q211" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="R211" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S211" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="T211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="U211" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="V211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="W211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="X211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y211" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z211" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA211" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB211" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC211" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI211" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK211" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL211" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM211" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN211" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO211" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ211" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR211" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS211" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT211" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW211" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY211" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB211" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC211" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE211" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI211" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ211" s="15">
+        <v>19</v>
+      </c>
+      <c r="BK211" s="15">
+        <v>23</v>
+      </c>
+      <c r="BL211" s="15">
+        <v>21</v>
+      </c>
+      <c r="BM211" s="15">
+        <v>20</v>
+      </c>
+      <c r="BN211" s="15">
+        <v>22</v>
+      </c>
+      <c r="BO211" s="15">
+        <v>26</v>
+      </c>
+      <c r="BP211" s="15">
+        <v>21</v>
+      </c>
+      <c r="BQ211" s="16">
+        <v>16</v>
+      </c>
+      <c r="BR211" s="19">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/MI241111.xlsx
+++ b/R/data/MI241111.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7165AC4D-5BE5-2940-9573-3003EE76EE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF4607C-6DEB-9B45-9BC1-FBE2FAF41AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="1700" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8360,7 +8360,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21310" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22490" uniqueCount="904">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -10946,6 +10946,135 @@
   <si>
     <t>윤시한</t>
   </si>
+  <si>
+    <t>chorok052150@naver.com</t>
+  </si>
+  <si>
+    <t>김미니</t>
+  </si>
+  <si>
+    <t>zzun1414@naver.com</t>
+  </si>
+  <si>
+    <t>반도체·디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>황준영</t>
+  </si>
+  <si>
+    <t>dlalstmd03@gmail.com</t>
+  </si>
+  <si>
+    <t>이민승</t>
+  </si>
+  <si>
+    <t>nyor07@naver.com</t>
+  </si>
+  <si>
+    <t>윤효라</t>
+  </si>
+  <si>
+    <t>xormr1505@naver.com</t>
+  </si>
+  <si>
+    <t>박찬원</t>
+  </si>
+  <si>
+    <t>010726kjm@naver.com</t>
+  </si>
+  <si>
+    <t>김정민</t>
+  </si>
+  <si>
+    <t>sengyu0805@gmail.com</t>
+  </si>
+  <si>
+    <t>나선아</t>
+  </si>
+  <si>
+    <t>swncelt@naver.com</t>
+  </si>
+  <si>
+    <t>박은서</t>
+  </si>
+  <si>
+    <t>thwls5541@gmail.com</t>
+  </si>
+  <si>
+    <t>김소원</t>
+  </si>
+  <si>
+    <t>whalsrl124@naver.com</t>
+  </si>
+  <si>
+    <t>조민기</t>
+  </si>
+  <si>
+    <t>dongkyo4@gmail.com</t>
+  </si>
+  <si>
+    <t>이동교</t>
+  </si>
+  <si>
+    <t>chlwnstn777@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터전공</t>
+  </si>
+  <si>
+    <t>최준수</t>
+  </si>
+  <si>
+    <t>seohyemin2003@naver.com</t>
+  </si>
+  <si>
+    <t>서혜민</t>
+  </si>
+  <si>
+    <t>saycom816@gmail.com</t>
+  </si>
+  <si>
+    <t>김영빈</t>
+  </si>
+  <si>
+    <t>wjdtn2445@naver.com</t>
+  </si>
+  <si>
+    <t>이정수</t>
+  </si>
+  <si>
+    <t>stacy4036@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">최하은 </t>
+  </si>
+  <si>
+    <t>gisung5864@gmail.com</t>
+  </si>
+  <si>
+    <t>AI의료융합전공</t>
+  </si>
+  <si>
+    <t>조기성</t>
+  </si>
+  <si>
+    <t>seomina0503@naver.com</t>
+  </si>
+  <si>
+    <t>서민아</t>
+  </si>
+  <si>
+    <t>whrhdwn2003@gmail.com</t>
+  </si>
+  <si>
+    <t>조은서</t>
+  </si>
+  <si>
+    <t>tjdehs4809@naver.com</t>
+  </si>
+  <si>
+    <t>최성돈</t>
+  </si>
 </sst>
 </file>
 
@@ -11420,7 +11549,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:BQ361">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:BQ381">
   <tableColumns count="69">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -11697,11 +11826,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BR361"/>
+  <dimension ref="A1:BR381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F367" sqref="F367"/>
+      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B385" sqref="B385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -87306,6 +87435,4186 @@
         <v>25</v>
       </c>
     </row>
+    <row r="362" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A362" s="4">
+        <v>45614.083203541668</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D362" s="5">
+        <v>20242307</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="F362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H362" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I362" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J362" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L362" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M362" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N362" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P362" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q362" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R362" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S362" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U362" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V362" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X362" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y362" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z362" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB362" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC362" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD362" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH362" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ362" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL362" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN362" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO362" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP362" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV362" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX362" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY362" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ362" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC362" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD362" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE362" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF362" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG362" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH362" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI362" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ362" s="5">
+        <v>21</v>
+      </c>
+      <c r="BK362" s="5">
+        <v>31</v>
+      </c>
+      <c r="BL362" s="5">
+        <v>20</v>
+      </c>
+      <c r="BM362" s="5">
+        <v>21</v>
+      </c>
+      <c r="BN362" s="5">
+        <v>15</v>
+      </c>
+      <c r="BO362" s="5">
+        <v>29</v>
+      </c>
+      <c r="BP362" s="5">
+        <v>23</v>
+      </c>
+      <c r="BQ362" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="363" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A363" s="7">
+        <v>45614.187954837966</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="D363" s="8">
+        <v>20203352</v>
+      </c>
+      <c r="E363" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="F363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G363" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H363" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J363" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M363" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O363" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q363" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T363" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U363" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="V363" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W363" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X363" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y363" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z363" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB363" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC363" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD363" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE363" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF363" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG363" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI363" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK363" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM363" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN363" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ363" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS363" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT363" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU363" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW363" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX363" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ363" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB363" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC363" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG363" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH363" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI363" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ363" s="8">
+        <v>20</v>
+      </c>
+      <c r="BK363" s="8">
+        <v>15</v>
+      </c>
+      <c r="BL363" s="8">
+        <v>24</v>
+      </c>
+      <c r="BM363" s="8">
+        <v>21</v>
+      </c>
+      <c r="BN363" s="8">
+        <v>20</v>
+      </c>
+      <c r="BO363" s="8">
+        <v>28</v>
+      </c>
+      <c r="BP363" s="8">
+        <v>28</v>
+      </c>
+      <c r="BQ363" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="364" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A364" s="4">
+        <v>45614.473674606481</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D364" s="5">
+        <v>20227143</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="F364" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G364" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H364" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I364" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J364" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K364" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L364" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M364" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N364" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O364" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P364" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q364" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R364" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S364" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T364" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U364" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V364" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="W364" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X364" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y364" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z364" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA364" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB364" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC364" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD364" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE364" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF364" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG364" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH364" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI364" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ364" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK364" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL364" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM364" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN364" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO364" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP364" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ364" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR364" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS364" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT364" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU364" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV364" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW364" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX364" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY364" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ364" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA364" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB364" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC364" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD364" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE364" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF364" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG364" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH364" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI364" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ364" s="5">
+        <v>21</v>
+      </c>
+      <c r="BK364" s="5">
+        <v>21</v>
+      </c>
+      <c r="BL364" s="5">
+        <v>17</v>
+      </c>
+      <c r="BM364" s="5">
+        <v>12</v>
+      </c>
+      <c r="BN364" s="5">
+        <v>14</v>
+      </c>
+      <c r="BO364" s="5">
+        <v>21</v>
+      </c>
+      <c r="BP364" s="5">
+        <v>22</v>
+      </c>
+      <c r="BQ364" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="365" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A365" s="7">
+        <v>45614.549376828705</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D365" s="8">
+        <v>20217087</v>
+      </c>
+      <c r="E365" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="F365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G365" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H365" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I365" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J365" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K365" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L365" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q365" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R365" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S365" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="U365" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="V365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="W365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X365" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA365" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB365" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE365" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF365" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG365" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH365" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI365" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ365" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM365" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN365" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP365" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ365" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR365" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY365" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ365" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA365" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE365" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF365" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG365" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI365" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ365" s="8">
+        <v>7</v>
+      </c>
+      <c r="BK365" s="8">
+        <v>13</v>
+      </c>
+      <c r="BL365" s="8">
+        <v>15</v>
+      </c>
+      <c r="BM365" s="8">
+        <v>19</v>
+      </c>
+      <c r="BN365" s="8">
+        <v>21</v>
+      </c>
+      <c r="BO365" s="8">
+        <v>16</v>
+      </c>
+      <c r="BP365" s="8">
+        <v>18</v>
+      </c>
+      <c r="BQ365" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="366" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A366" s="4">
+        <v>45614.586878182876</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D366" s="5">
+        <v>20205176</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H366" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I366" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L366" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M366" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N366" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U366" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V366" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z366" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB366" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC366" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD366" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE366" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF366" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG366" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH366" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL366" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM366" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO366" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP366" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ366" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR366" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS366" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT366" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX366" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA366" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB366" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC366" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG366" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI366" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ366" s="5">
+        <v>16</v>
+      </c>
+      <c r="BK366" s="5">
+        <v>23</v>
+      </c>
+      <c r="BL366" s="5">
+        <v>25</v>
+      </c>
+      <c r="BM366" s="5">
+        <v>22</v>
+      </c>
+      <c r="BN366" s="5">
+        <v>18</v>
+      </c>
+      <c r="BO366" s="5">
+        <v>27</v>
+      </c>
+      <c r="BP366" s="5">
+        <v>20</v>
+      </c>
+      <c r="BQ366" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="367" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A367" s="7">
+        <v>45614.593491030093</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D367" s="8">
+        <v>20203513</v>
+      </c>
+      <c r="E367" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="F367" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G367" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H367" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I367" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J367" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K367" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L367" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M367" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N367" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O367" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P367" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q367" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R367" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="S367" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T367" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U367" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="V367" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="W367" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X367" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y367" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z367" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA367" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB367" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC367" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD367" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE367" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF367" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG367" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH367" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI367" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ367" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK367" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL367" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM367" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN367" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO367" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP367" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ367" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR367" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS367" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT367" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU367" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV367" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW367" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX367" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY367" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ367" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA367" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB367" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC367" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD367" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE367" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF367" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG367" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH367" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI367" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ367" s="8">
+        <v>25</v>
+      </c>
+      <c r="BK367" s="8">
+        <v>29</v>
+      </c>
+      <c r="BL367" s="8">
+        <v>29</v>
+      </c>
+      <c r="BM367" s="8">
+        <v>20</v>
+      </c>
+      <c r="BN367" s="8">
+        <v>18</v>
+      </c>
+      <c r="BO367" s="8">
+        <v>28</v>
+      </c>
+      <c r="BP367" s="8">
+        <v>29</v>
+      </c>
+      <c r="BQ367" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="368" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A368" s="4">
+        <v>45614.609099074078</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D368" s="5">
+        <v>20245152</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="F368" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G368" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H368" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I368" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J368" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K368" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L368" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M368" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N368" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O368" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P368" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q368" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R368" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S368" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T368" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U368" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V368" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="W368" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X368" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y368" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z368" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA368" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB368" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC368" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD368" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE368" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF368" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG368" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH368" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI368" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ368" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK368" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL368" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM368" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN368" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO368" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP368" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ368" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR368" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS368" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT368" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU368" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV368" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW368" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX368" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY368" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ368" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA368" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB368" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC368" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD368" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE368" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF368" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG368" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH368" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI368" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ368" s="5">
+        <v>14</v>
+      </c>
+      <c r="BK368" s="5">
+        <v>18</v>
+      </c>
+      <c r="BL368" s="5">
+        <v>24</v>
+      </c>
+      <c r="BM368" s="5">
+        <v>28</v>
+      </c>
+      <c r="BN368" s="5">
+        <v>14</v>
+      </c>
+      <c r="BO368" s="5">
+        <v>17</v>
+      </c>
+      <c r="BP368" s="5">
+        <v>22</v>
+      </c>
+      <c r="BQ368" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A369" s="7">
+        <v>45614.639290763887</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D369" s="8">
+        <v>20192876</v>
+      </c>
+      <c r="E369" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="F369" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G369" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I369" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K369" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L369" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M369" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N369" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P369" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S369" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T369" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U369" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="V369" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="W369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z369" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC369" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD369" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE369" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF369" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG369" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH369" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ369" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK369" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL369" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM369" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN369" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO369" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP369" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR369" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS369" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT369" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU369" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA369" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB369" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC369" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE369" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF369" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG369" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH369" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI369" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ369" s="8">
+        <v>7</v>
+      </c>
+      <c r="BK369" s="8">
+        <v>16</v>
+      </c>
+      <c r="BL369" s="8">
+        <v>14</v>
+      </c>
+      <c r="BM369" s="8">
+        <v>25</v>
+      </c>
+      <c r="BN369" s="8">
+        <v>28</v>
+      </c>
+      <c r="BO369" s="8">
+        <v>23</v>
+      </c>
+      <c r="BP369" s="8">
+        <v>32</v>
+      </c>
+      <c r="BQ369" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="370" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A370" s="4">
+        <v>45614.671384548608</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D370" s="5">
+        <v>20207065</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="F370" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G370" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H370" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I370" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J370" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K370" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L370" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M370" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N370" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O370" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P370" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q370" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R370" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S370" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T370" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U370" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V370" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W370" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X370" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y370" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z370" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA370" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB370" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC370" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD370" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE370" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF370" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG370" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH370" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI370" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ370" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK370" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL370" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM370" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN370" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO370" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP370" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ370" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR370" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS370" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT370" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU370" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV370" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW370" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX370" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY370" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ370" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA370" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB370" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC370" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD370" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE370" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF370" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG370" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH370" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI370" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ370" s="5">
+        <v>9</v>
+      </c>
+      <c r="BK370" s="5">
+        <v>15</v>
+      </c>
+      <c r="BL370" s="5">
+        <v>24</v>
+      </c>
+      <c r="BM370" s="5">
+        <v>24</v>
+      </c>
+      <c r="BN370" s="5">
+        <v>21</v>
+      </c>
+      <c r="BO370" s="5">
+        <v>22</v>
+      </c>
+      <c r="BP370" s="5">
+        <v>31</v>
+      </c>
+      <c r="BQ370" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="371" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A371" s="7">
+        <v>45614.732987476847</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D371" s="8">
+        <v>20192986</v>
+      </c>
+      <c r="E371" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="F371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J371" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K371" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L371" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M371" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O371" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P371" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q371" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R371" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T371" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="V371" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="W371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF371" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI371" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ371" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ371" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY371" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD371" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI371" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ371" s="8">
+        <v>8</v>
+      </c>
+      <c r="BK371" s="8">
+        <v>8</v>
+      </c>
+      <c r="BL371" s="8">
+        <v>8</v>
+      </c>
+      <c r="BM371" s="8">
+        <v>7</v>
+      </c>
+      <c r="BN371" s="8">
+        <v>8</v>
+      </c>
+      <c r="BO371" s="8">
+        <v>20</v>
+      </c>
+      <c r="BP371" s="8">
+        <v>16</v>
+      </c>
+      <c r="BQ371" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A372" s="4">
+        <v>45614.758567951387</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="D372" s="5">
+        <v>20213241</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H372" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K372" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M372" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N372" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P372" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q372" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R372" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S372" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T372" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X372" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y372" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z372" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC372" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD372" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF372" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI372" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ372" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK372" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL372" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM372" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN372" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ372" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR372" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV372" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW372" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY372" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ372" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA372" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB372" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC372" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD372" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE372" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF372" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG372" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH372" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI372" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ372" s="5">
+        <v>18</v>
+      </c>
+      <c r="BK372" s="5">
+        <v>12</v>
+      </c>
+      <c r="BL372" s="5">
+        <v>24</v>
+      </c>
+      <c r="BM372" s="5">
+        <v>20</v>
+      </c>
+      <c r="BN372" s="5">
+        <v>17</v>
+      </c>
+      <c r="BO372" s="5">
+        <v>19</v>
+      </c>
+      <c r="BP372" s="5">
+        <v>16</v>
+      </c>
+      <c r="BQ372" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="373" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="7">
+        <v>45614.807993622686</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="D373" s="8">
+        <v>20193844</v>
+      </c>
+      <c r="E373" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="F373" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G373" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H373" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I373" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J373" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K373" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L373" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M373" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N373" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O373" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P373" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q373" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R373" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S373" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T373" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U373" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="V373" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="W373" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X373" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y373" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z373" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA373" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB373" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC373" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD373" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE373" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF373" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG373" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH373" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI373" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ373" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK373" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL373" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM373" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN373" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO373" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP373" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ373" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR373" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS373" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT373" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU373" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV373" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW373" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX373" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY373" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ373" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA373" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB373" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC373" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD373" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE373" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF373" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG373" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH373" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI373" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ373" s="8">
+        <v>9</v>
+      </c>
+      <c r="BK373" s="8">
+        <v>23</v>
+      </c>
+      <c r="BL373" s="8">
+        <v>28</v>
+      </c>
+      <c r="BM373" s="8">
+        <v>14</v>
+      </c>
+      <c r="BN373" s="8">
+        <v>16</v>
+      </c>
+      <c r="BO373" s="8">
+        <v>20</v>
+      </c>
+      <c r="BP373" s="8">
+        <v>20</v>
+      </c>
+      <c r="BQ373" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="374" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="4">
+        <v>45614.841260358793</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D374" s="5">
+        <v>20232216</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="F374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G374" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H374" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I374" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M374" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N374" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P374" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q374" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S374" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U374" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V374" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W374" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X374" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y374" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z374" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC374" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD374" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE374" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK374" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL374" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM374" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN374" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO374" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP374" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR374" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS374" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV374" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW374" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX374" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA374" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB374" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC374" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD374" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE374" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG374" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH374" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI374" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ374" s="5">
+        <v>27</v>
+      </c>
+      <c r="BK374" s="5">
+        <v>20</v>
+      </c>
+      <c r="BL374" s="5">
+        <v>19</v>
+      </c>
+      <c r="BM374" s="5">
+        <v>13</v>
+      </c>
+      <c r="BN374" s="5">
+        <v>27</v>
+      </c>
+      <c r="BO374" s="5">
+        <v>34</v>
+      </c>
+      <c r="BP374" s="5">
+        <v>32</v>
+      </c>
+      <c r="BQ374" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="375" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A375" s="7">
+        <v>45614.842431770834</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D375" s="8">
+        <v>20242930</v>
+      </c>
+      <c r="E375" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="F375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H375" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I375" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J375" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K375" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L375" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M375" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P375" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q375" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U375" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="V375" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="W375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X375" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y375" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z375" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA375" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC375" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD375" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE375" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK375" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM375" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN375" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO375" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ375" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR375" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS375" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT375" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU375" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV375" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW375" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX375" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA375" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB375" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD375" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE375" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF375" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG375" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH375" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI375" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ375" s="8">
+        <v>23</v>
+      </c>
+      <c r="BK375" s="8">
+        <v>22</v>
+      </c>
+      <c r="BL375" s="8">
+        <v>17</v>
+      </c>
+      <c r="BM375" s="8">
+        <v>17</v>
+      </c>
+      <c r="BN375" s="8">
+        <v>23</v>
+      </c>
+      <c r="BO375" s="8">
+        <v>22</v>
+      </c>
+      <c r="BP375" s="8">
+        <v>27</v>
+      </c>
+      <c r="BQ375" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="376" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A376" s="4">
+        <v>45614.857175763886</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D376" s="5">
+        <v>20227103</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="F376" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J376" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N376" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P376" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q376" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R376" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U376" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V376" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="W376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X376" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y376" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z376" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC376" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD376" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG376" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH376" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL376" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP376" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR376" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS376" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT376" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU376" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV376" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW376" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX376" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ376" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA376" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB376" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC376" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD376" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE376" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF376" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG376" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH376" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI376" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ376" s="5">
+        <v>20</v>
+      </c>
+      <c r="BK376" s="5">
+        <v>30</v>
+      </c>
+      <c r="BL376" s="5">
+        <v>29</v>
+      </c>
+      <c r="BM376" s="5">
+        <v>28</v>
+      </c>
+      <c r="BN376" s="5">
+        <v>17</v>
+      </c>
+      <c r="BO376" s="5">
+        <v>34</v>
+      </c>
+      <c r="BP376" s="5">
+        <v>30</v>
+      </c>
+      <c r="BQ376" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="377" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A377" s="7">
+        <v>45614.876233703704</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D377" s="8">
+        <v>20227034</v>
+      </c>
+      <c r="E377" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="F377" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G377" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H377" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I377" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J377" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K377" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L377" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M377" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N377" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O377" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P377" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q377" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R377" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S377" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T377" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U377" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="V377" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W377" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X377" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y377" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z377" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA377" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB377" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC377" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD377" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE377" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF377" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG377" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH377" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI377" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ377" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK377" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL377" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM377" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN377" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO377" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP377" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ377" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR377" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS377" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT377" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU377" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV377" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW377" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX377" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY377" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ377" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA377" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB377" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC377" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD377" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE377" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF377" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG377" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH377" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI377" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ377" s="8">
+        <v>21</v>
+      </c>
+      <c r="BK377" s="8">
+        <v>17</v>
+      </c>
+      <c r="BL377" s="8">
+        <v>11</v>
+      </c>
+      <c r="BM377" s="8">
+        <v>27</v>
+      </c>
+      <c r="BN377" s="8">
+        <v>19</v>
+      </c>
+      <c r="BO377" s="8">
+        <v>25</v>
+      </c>
+      <c r="BP377" s="8">
+        <v>19</v>
+      </c>
+      <c r="BQ377" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="378" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A378" s="4">
+        <v>45614.918492662036</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="D378" s="5">
+        <v>20216526</v>
+      </c>
+      <c r="E378" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="F378" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G378" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I378" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J378" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K378" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L378" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O378" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P378" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q378" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T378" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U378" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W378" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X378" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y378" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z378" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC378" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD378" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE378" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI378" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ378" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK378" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL378" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM378" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO378" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR378" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS378" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT378" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU378" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX378" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA378" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB378" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC378" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE378" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF378" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG378" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH378" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI378" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ378" s="5">
+        <v>20</v>
+      </c>
+      <c r="BK378" s="5">
+        <v>16</v>
+      </c>
+      <c r="BL378" s="5">
+        <v>28</v>
+      </c>
+      <c r="BM378" s="5">
+        <v>15</v>
+      </c>
+      <c r="BN378" s="5">
+        <v>25</v>
+      </c>
+      <c r="BO378" s="5">
+        <v>29</v>
+      </c>
+      <c r="BP378" s="5">
+        <v>27</v>
+      </c>
+      <c r="BQ378" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="379" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A379" s="7">
+        <v>45615.043872372684</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D379" s="8">
+        <v>20246244</v>
+      </c>
+      <c r="E379" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="F379" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G379" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H379" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I379" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J379" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K379" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L379" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M379" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N379" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O379" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P379" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q379" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R379" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="S379" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T379" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="U379" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="V379" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W379" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X379" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y379" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z379" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA379" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB379" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC379" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD379" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE379" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF379" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG379" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH379" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI379" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ379" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK379" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL379" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM379" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN379" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO379" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP379" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ379" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR379" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS379" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT379" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU379" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV379" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW379" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX379" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY379" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ379" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA379" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB379" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC379" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD379" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE379" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF379" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG379" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH379" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI379" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ379" s="8">
+        <v>20</v>
+      </c>
+      <c r="BK379" s="8">
+        <v>27</v>
+      </c>
+      <c r="BL379" s="8">
+        <v>16</v>
+      </c>
+      <c r="BM379" s="8">
+        <v>16</v>
+      </c>
+      <c r="BN379" s="8">
+        <v>20</v>
+      </c>
+      <c r="BO379" s="8">
+        <v>26</v>
+      </c>
+      <c r="BP379" s="8">
+        <v>25</v>
+      </c>
+      <c r="BQ379" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="380" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A380" s="4">
+        <v>45615.067898518522</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D380" s="5">
+        <v>20232750</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="F380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G380" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H380" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I380" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J380" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K380" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M380" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N380" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O380" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P380" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q380" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S380" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U380" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y380" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z380" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA380" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC380" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF380" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK380" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM380" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN380" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO380" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ380" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS380" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU380" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW380" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX380" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY380" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ380" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA380" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC380" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE380" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG380" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH380" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI380" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ380" s="5">
+        <v>29</v>
+      </c>
+      <c r="BK380" s="5">
+        <v>17</v>
+      </c>
+      <c r="BL380" s="5">
+        <v>20</v>
+      </c>
+      <c r="BM380" s="5">
+        <v>13</v>
+      </c>
+      <c r="BN380" s="5">
+        <v>22</v>
+      </c>
+      <c r="BO380" s="5">
+        <v>20</v>
+      </c>
+      <c r="BP380" s="5">
+        <v>27</v>
+      </c>
+      <c r="BQ380" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A381" s="14">
+        <v>45615.141983333335</v>
+      </c>
+      <c r="B381" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="C381" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D381" s="15">
+        <v>20201103</v>
+      </c>
+      <c r="E381" s="15" t="s">
+        <v>903</v>
+      </c>
+      <c r="F381" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G381" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H381" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I381" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J381" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K381" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L381" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M381" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="N381" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="O381" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P381" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q381" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="R381" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S381" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="T381" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="U381" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V381" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="W381" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="X381" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y381" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z381" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA381" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB381" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC381" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD381" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE381" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF381" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG381" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH381" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI381" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ381" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK381" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL381" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM381" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN381" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO381" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP381" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ381" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR381" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS381" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT381" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU381" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV381" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW381" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX381" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY381" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ381" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA381" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB381" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC381" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD381" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE381" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF381" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG381" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH381" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI381" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ381" s="15">
+        <v>19</v>
+      </c>
+      <c r="BK381" s="15">
+        <v>17</v>
+      </c>
+      <c r="BL381" s="15">
+        <v>23</v>
+      </c>
+      <c r="BM381" s="15">
+        <v>18</v>
+      </c>
+      <c r="BN381" s="15">
+        <v>27</v>
+      </c>
+      <c r="BO381" s="15">
+        <v>26</v>
+      </c>
+      <c r="BP381" s="15">
+        <v>24</v>
+      </c>
+      <c r="BQ381" s="16">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/MI241111.xlsx
+++ b/R/data/MI241111.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF4607C-6DEB-9B45-9BC1-FBE2FAF41AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EF850A-FD9A-3641-BB79-10F247188245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="1700" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8360,7 +8360,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22490" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23139" uniqueCount="926">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -11075,6 +11075,72 @@
   <si>
     <t>최성돈</t>
   </si>
+  <si>
+    <t>hshkjh1234@naver.com</t>
+  </si>
+  <si>
+    <t>황소현</t>
+  </si>
+  <si>
+    <t>cgb01045647472@gmail.com</t>
+  </si>
+  <si>
+    <t>최기백</t>
+  </si>
+  <si>
+    <t>leyy2k@naver.com</t>
+  </si>
+  <si>
+    <t>김대현</t>
+  </si>
+  <si>
+    <t>cindy_lol@naver.com</t>
+  </si>
+  <si>
+    <t>권한별</t>
+  </si>
+  <si>
+    <t>woonsuck0916@naver.com</t>
+  </si>
+  <si>
+    <t>운석현</t>
+  </si>
+  <si>
+    <t>iwhwigw836292@naver.com</t>
+  </si>
+  <si>
+    <t>김나현</t>
+  </si>
+  <si>
+    <t>eojeongmin146@gmail.com</t>
+  </si>
+  <si>
+    <t>어정민</t>
+  </si>
+  <si>
+    <t>kjh54088@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터 사이언스학부</t>
+  </si>
+  <si>
+    <t>김 재희</t>
+  </si>
+  <si>
+    <t>ism050204@naver.com</t>
+  </si>
+  <si>
+    <t>4080jjh@gmail.com</t>
+  </si>
+  <si>
+    <t>장재환</t>
+  </si>
+  <si>
+    <t>lhw2565@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜원</t>
+  </si>
 </sst>
 </file>
 
@@ -11549,7 +11615,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:BQ381">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:BQ392">
   <tableColumns count="69">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -11826,11 +11892,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BR381"/>
+  <dimension ref="A1:BR392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B385" sqref="B385"/>
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G399" sqref="G399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -91615,6 +91681,2305 @@
         <v>18</v>
       </c>
     </row>
+    <row r="382" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A382" s="4">
+        <v>45615.459147534726</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D382" s="5">
+        <v>20243063</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="F382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J382" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R382" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X382" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y382" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF382" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH382" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM382" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT382" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV382" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG382" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH382" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI382" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ382" s="5">
+        <v>22</v>
+      </c>
+      <c r="BK382" s="5">
+        <v>15</v>
+      </c>
+      <c r="BL382" s="5">
+        <v>17</v>
+      </c>
+      <c r="BM382" s="5">
+        <v>19</v>
+      </c>
+      <c r="BN382" s="5">
+        <v>19</v>
+      </c>
+      <c r="BO382" s="5">
+        <v>26</v>
+      </c>
+      <c r="BP382" s="5">
+        <v>27</v>
+      </c>
+      <c r="BQ382" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="383" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A383" s="7">
+        <v>45615.541273113427</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D383" s="8">
+        <v>20193003</v>
+      </c>
+      <c r="E383" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="F383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K383" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="S383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T383" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="V383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="W383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN383" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ383" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD383" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH383" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI383" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ383" s="8">
+        <v>11</v>
+      </c>
+      <c r="BK383" s="8">
+        <v>12</v>
+      </c>
+      <c r="BL383" s="8">
+        <v>11</v>
+      </c>
+      <c r="BM383" s="8">
+        <v>13</v>
+      </c>
+      <c r="BN383" s="8">
+        <v>15</v>
+      </c>
+      <c r="BO383" s="8">
+        <v>14</v>
+      </c>
+      <c r="BP383" s="8">
+        <v>14</v>
+      </c>
+      <c r="BQ383" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="384" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A384" s="4">
+        <v>45615.589646238426</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D384" s="5">
+        <v>20215115</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="F384" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H384" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I384" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K384" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L384" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M384" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q384" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T384" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="W384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X384" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y384" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z384" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA384" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB384" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI384" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ384" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM384" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN384" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO384" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ384" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS384" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU384" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW384" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX384" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY384" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ384" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA384" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB384" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC384" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD384" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF384" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH384" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI384" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ384" s="5">
+        <v>21</v>
+      </c>
+      <c r="BK384" s="5">
+        <v>20</v>
+      </c>
+      <c r="BL384" s="5">
+        <v>21</v>
+      </c>
+      <c r="BM384" s="5">
+        <v>18</v>
+      </c>
+      <c r="BN384" s="5">
+        <v>19</v>
+      </c>
+      <c r="BO384" s="5">
+        <v>26</v>
+      </c>
+      <c r="BP384" s="5">
+        <v>26</v>
+      </c>
+      <c r="BQ384" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="385" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A385" s="7">
+        <v>45615.604754710643</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="D385" s="8">
+        <v>20201007</v>
+      </c>
+      <c r="E385" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="F385" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G385" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H385" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I385" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J385" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K385" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L385" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M385" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N385" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O385" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P385" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q385" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R385" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="S385" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T385" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U385" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="V385" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W385" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X385" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y385" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z385" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA385" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB385" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC385" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD385" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE385" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF385" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG385" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH385" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI385" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ385" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK385" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL385" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM385" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN385" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO385" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP385" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ385" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR385" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS385" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT385" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU385" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV385" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW385" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX385" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY385" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ385" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA385" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB385" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC385" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD385" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE385" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF385" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG385" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH385" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI385" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ385" s="8">
+        <v>13</v>
+      </c>
+      <c r="BK385" s="8">
+        <v>20</v>
+      </c>
+      <c r="BL385" s="8">
+        <v>27</v>
+      </c>
+      <c r="BM385" s="8">
+        <v>17</v>
+      </c>
+      <c r="BN385" s="8">
+        <v>34</v>
+      </c>
+      <c r="BO385" s="8">
+        <v>27</v>
+      </c>
+      <c r="BP385" s="8">
+        <v>30</v>
+      </c>
+      <c r="BQ385" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="386" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A386" s="4">
+        <v>45615.699420798614</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D386" s="5">
+        <v>20205206</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="F386" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G386" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H386" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I386" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J386" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K386" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L386" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M386" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N386" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O386" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P386" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q386" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R386" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S386" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T386" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U386" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V386" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="W386" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X386" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y386" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z386" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA386" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB386" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC386" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD386" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE386" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF386" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG386" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH386" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI386" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ386" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK386" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL386" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM386" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN386" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO386" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP386" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ386" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR386" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS386" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT386" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU386" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV386" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW386" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX386" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY386" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ386" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA386" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB386" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC386" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD386" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE386" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF386" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG386" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH386" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI386" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ386" s="5">
+        <v>9</v>
+      </c>
+      <c r="BK386" s="5">
+        <v>20</v>
+      </c>
+      <c r="BL386" s="5">
+        <v>25</v>
+      </c>
+      <c r="BM386" s="5">
+        <v>26</v>
+      </c>
+      <c r="BN386" s="5">
+        <v>19</v>
+      </c>
+      <c r="BO386" s="5">
+        <v>28</v>
+      </c>
+      <c r="BP386" s="5">
+        <v>27</v>
+      </c>
+      <c r="BQ386" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="387" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A387" s="7">
+        <v>45615.719904270838</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D387" s="8">
+        <v>20233903</v>
+      </c>
+      <c r="E387" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="F387" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G387" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H387" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I387" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J387" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K387" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L387" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M387" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N387" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O387" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P387" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q387" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R387" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="S387" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="T387" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U387" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="V387" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="W387" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X387" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y387" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z387" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA387" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB387" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC387" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD387" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE387" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF387" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG387" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH387" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI387" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ387" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK387" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL387" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM387" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN387" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO387" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP387" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ387" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR387" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS387" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT387" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU387" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV387" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW387" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX387" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY387" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ387" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA387" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB387" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC387" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD387" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE387" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF387" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG387" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH387" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI387" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ387" s="8">
+        <v>10</v>
+      </c>
+      <c r="BK387" s="8">
+        <v>10</v>
+      </c>
+      <c r="BL387" s="8">
+        <v>14</v>
+      </c>
+      <c r="BM387" s="8">
+        <v>14</v>
+      </c>
+      <c r="BN387" s="8">
+        <v>20</v>
+      </c>
+      <c r="BO387" s="8">
+        <v>27</v>
+      </c>
+      <c r="BP387" s="8">
+        <v>27</v>
+      </c>
+      <c r="BQ387" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="388" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A388" s="4">
+        <v>45615.752017743056</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D388" s="5">
+        <v>20242725</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="F388" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J388" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K388" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L388" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M388" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q388" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R388" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S388" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T388" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U388" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X388" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y388" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA388" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB388" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF388" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG388" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH388" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI388" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ388" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK388" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP388" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ388" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV388" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW388" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX388" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ388" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE388" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF388" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG388" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH388" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI388" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ388" s="5">
+        <v>7</v>
+      </c>
+      <c r="BK388" s="5">
+        <v>7</v>
+      </c>
+      <c r="BL388" s="5">
+        <v>14</v>
+      </c>
+      <c r="BM388" s="5">
+        <v>12</v>
+      </c>
+      <c r="BN388" s="5">
+        <v>19</v>
+      </c>
+      <c r="BO388" s="5">
+        <v>17</v>
+      </c>
+      <c r="BP388" s="5">
+        <v>15</v>
+      </c>
+      <c r="BQ388" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="389" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A389" s="7">
+        <v>45615.764825416671</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="D389" s="8">
+        <v>20243216</v>
+      </c>
+      <c r="E389" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="F389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H389" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M389" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P389" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q389" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R389" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="S389" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="V389" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="W389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z389" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC389" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF389" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH389" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK389" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL389" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO389" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU389" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA389" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH389" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI389" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ389" s="8">
+        <v>28</v>
+      </c>
+      <c r="BK389" s="8">
+        <v>22</v>
+      </c>
+      <c r="BL389" s="8">
+        <v>20</v>
+      </c>
+      <c r="BM389" s="8">
+        <v>21</v>
+      </c>
+      <c r="BN389" s="8">
+        <v>20</v>
+      </c>
+      <c r="BO389" s="8">
+        <v>23</v>
+      </c>
+      <c r="BP389" s="8">
+        <v>30</v>
+      </c>
+      <c r="BQ389" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="390" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A390" s="4">
+        <v>45615.794501944445</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D390" s="5">
+        <v>20243001</v>
+      </c>
+      <c r="E390" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G390" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H390" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I390" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J390" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K390" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L390" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M390" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N390" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O390" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P390" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q390" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R390" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S390" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T390" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U390" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V390" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W390" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X390" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y390" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z390" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA390" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB390" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC390" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD390" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE390" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF390" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG390" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH390" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI390" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ390" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK390" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL390" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM390" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN390" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO390" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP390" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ390" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR390" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS390" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT390" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU390" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV390" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW390" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX390" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY390" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ390" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA390" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB390" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC390" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD390" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE390" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF390" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG390" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH390" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI390" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ390" s="5">
+        <v>11</v>
+      </c>
+      <c r="BK390" s="5">
+        <v>22</v>
+      </c>
+      <c r="BL390" s="5">
+        <v>23</v>
+      </c>
+      <c r="BM390" s="5">
+        <v>15</v>
+      </c>
+      <c r="BN390" s="5">
+        <v>13</v>
+      </c>
+      <c r="BO390" s="5">
+        <v>26</v>
+      </c>
+      <c r="BP390" s="5">
+        <v>21</v>
+      </c>
+      <c r="BQ390" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="391" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A391" s="7">
+        <v>45615.804147662042</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D391" s="8">
+        <v>20182436</v>
+      </c>
+      <c r="E391" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="F391" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G391" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H391" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I391" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J391" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K391" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L391" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M391" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N391" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O391" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P391" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q391" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R391" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="S391" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T391" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U391" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="V391" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W391" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X391" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y391" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z391" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA391" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB391" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC391" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD391" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE391" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF391" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG391" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH391" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI391" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ391" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK391" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL391" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM391" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN391" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO391" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP391" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ391" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR391" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS391" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT391" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU391" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV391" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW391" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX391" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY391" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ391" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA391" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB391" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC391" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD391" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE391" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF391" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG391" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH391" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI391" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ391" s="8">
+        <v>9</v>
+      </c>
+      <c r="BK391" s="8">
+        <v>11</v>
+      </c>
+      <c r="BL391" s="8">
+        <v>25</v>
+      </c>
+      <c r="BM391" s="8">
+        <v>23</v>
+      </c>
+      <c r="BN391" s="8">
+        <v>34</v>
+      </c>
+      <c r="BO391" s="8">
+        <v>25</v>
+      </c>
+      <c r="BP391" s="8">
+        <v>22</v>
+      </c>
+      <c r="BQ391" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="392" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A392" s="20">
+        <v>45615.842424618051</v>
+      </c>
+      <c r="B392" s="21" t="s">
+        <v>924</v>
+      </c>
+      <c r="C392" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D392" s="21">
+        <v>20242565</v>
+      </c>
+      <c r="E392" s="21" t="s">
+        <v>925</v>
+      </c>
+      <c r="F392" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G392" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H392" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I392" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="J392" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K392" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L392" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M392" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="N392" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O392" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P392" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q392" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="R392" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="S392" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="T392" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="U392" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="V392" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="W392" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="X392" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y392" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z392" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA392" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB392" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC392" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD392" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE392" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF392" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG392" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH392" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI392" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ392" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK392" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL392" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM392" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN392" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO392" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP392" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ392" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR392" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS392" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT392" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU392" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV392" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW392" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX392" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY392" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ392" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA392" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB392" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC392" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD392" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE392" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF392" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG392" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH392" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI392" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ392" s="21">
+        <v>24</v>
+      </c>
+      <c r="BK392" s="21">
+        <v>15</v>
+      </c>
+      <c r="BL392" s="21">
+        <v>17</v>
+      </c>
+      <c r="BM392" s="21">
+        <v>26</v>
+      </c>
+      <c r="BN392" s="21">
+        <v>16</v>
+      </c>
+      <c r="BO392" s="21">
+        <v>20</v>
+      </c>
+      <c r="BP392" s="21">
+        <v>14</v>
+      </c>
+      <c r="BQ392" s="22">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/MI241111.xlsx
+++ b/R/data/MI241111.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EF850A-FD9A-3641-BB79-10F247188245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFEE0A0-83DF-FC4D-9F96-B200069F4B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="1700" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8360,7 +8360,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23139" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24024" uniqueCount="958">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -11141,6 +11141,102 @@
   <si>
     <t>이혜원</t>
   </si>
+  <si>
+    <t>jsh050906@naver.com</t>
+  </si>
+  <si>
+    <t>정송희</t>
+  </si>
+  <si>
+    <t>woosm050530@gmail.com</t>
+  </si>
+  <si>
+    <t>우수민</t>
+  </si>
+  <si>
+    <t>sejun4@naver.com</t>
+  </si>
+  <si>
+    <t>경영/청각</t>
+  </si>
+  <si>
+    <t>박세준</t>
+  </si>
+  <si>
+    <t>loollypoolly@naver.com</t>
+  </si>
+  <si>
+    <t>김수정</t>
+  </si>
+  <si>
+    <t>wldus0859@gmail.com</t>
+  </si>
+  <si>
+    <t>박지연</t>
+  </si>
+  <si>
+    <t>yeonjej51@gmail.com</t>
+  </si>
+  <si>
+    <t>정연제</t>
+  </si>
+  <si>
+    <t>jseunghun411@gmail.com</t>
+  </si>
+  <si>
+    <t>정성훈</t>
+  </si>
+  <si>
+    <t>sunkeun.han@gmail.com</t>
+  </si>
+  <si>
+    <t>한선근</t>
+  </si>
+  <si>
+    <t>fred0203@naver.com</t>
+  </si>
+  <si>
+    <t>언어청각학부 청각학전공</t>
+  </si>
+  <si>
+    <t>이강준</t>
+  </si>
+  <si>
+    <t>happyfish123@naver.com</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>yeonju455@naver.com</t>
+  </si>
+  <si>
+    <t>정연주</t>
+  </si>
+  <si>
+    <t>xogns3043@naver.com</t>
+  </si>
+  <si>
+    <t>김태훈</t>
+  </si>
+  <si>
+    <t>hyeonse0@naver.com</t>
+  </si>
+  <si>
+    <t>황현서</t>
+  </si>
+  <si>
+    <t>ehgmldo2@naver.com</t>
+  </si>
+  <si>
+    <t>박도희</t>
+  </si>
+  <si>
+    <t>ilylive999@gmail.com</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
 </sst>
 </file>
 
@@ -11615,7 +11711,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:BQ392">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:BQ407">
   <tableColumns count="69">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -11892,11 +11988,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BR392"/>
+  <dimension ref="A1:BR407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G399" sqref="G399"/>
+      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D421" sqref="D421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -93980,6 +94076,3141 @@
         <v>8</v>
       </c>
     </row>
+    <row r="393" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A393" s="7">
+        <v>45615.89068405093</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D393" s="8">
+        <v>20243032</v>
+      </c>
+      <c r="E393" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="F393" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G393" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H393" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I393" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J393" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K393" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L393" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M393" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N393" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O393" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P393" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q393" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R393" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S393" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T393" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U393" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="V393" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="W393" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X393" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y393" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z393" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA393" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB393" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC393" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD393" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE393" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF393" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG393" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH393" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI393" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ393" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK393" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL393" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM393" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN393" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO393" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP393" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ393" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR393" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS393" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT393" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU393" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV393" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW393" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX393" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY393" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ393" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA393" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB393" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC393" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD393" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE393" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF393" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG393" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH393" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI393" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ393" s="8">
+        <v>25</v>
+      </c>
+      <c r="BK393" s="8">
+        <v>18</v>
+      </c>
+      <c r="BL393" s="8">
+        <v>15</v>
+      </c>
+      <c r="BM393" s="8">
+        <v>8</v>
+      </c>
+      <c r="BN393" s="8">
+        <v>17</v>
+      </c>
+      <c r="BO393" s="8">
+        <v>19</v>
+      </c>
+      <c r="BP393" s="8">
+        <v>23</v>
+      </c>
+      <c r="BQ393" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="394" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A394" s="4">
+        <v>45615.924129444444</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D394" s="5">
+        <v>20243630</v>
+      </c>
+      <c r="E394" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G394" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M394" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z394" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA394" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR394" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX394" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG394" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI394" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ394" s="5">
+        <v>16</v>
+      </c>
+      <c r="BK394" s="5">
+        <v>16</v>
+      </c>
+      <c r="BL394" s="5">
+        <v>17</v>
+      </c>
+      <c r="BM394" s="5">
+        <v>18</v>
+      </c>
+      <c r="BN394" s="5">
+        <v>15</v>
+      </c>
+      <c r="BO394" s="5">
+        <v>17</v>
+      </c>
+      <c r="BP394" s="5">
+        <v>15</v>
+      </c>
+      <c r="BQ394" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="395" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A395" s="7">
+        <v>45615.965644525466</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="D395" s="8">
+        <v>20193968</v>
+      </c>
+      <c r="E395" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="F395" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G395" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I395" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J395" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M395" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N395" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O395" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P395" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q395" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S395" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="T395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U395" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="V395" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W395" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y395" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z395" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC395" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD395" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE395" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF395" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH395" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI395" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL395" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM395" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO395" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS395" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT395" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU395" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV395" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX395" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA395" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB395" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC395" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE395" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG395" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH395" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI395" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ395" s="8">
+        <v>11</v>
+      </c>
+      <c r="BK395" s="8">
+        <v>11</v>
+      </c>
+      <c r="BL395" s="8">
+        <v>26</v>
+      </c>
+      <c r="BM395" s="8">
+        <v>21</v>
+      </c>
+      <c r="BN395" s="8">
+        <v>21</v>
+      </c>
+      <c r="BO395" s="8">
+        <v>26</v>
+      </c>
+      <c r="BP395" s="8">
+        <v>27</v>
+      </c>
+      <c r="BQ395" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="396" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A396" s="4">
+        <v>45616.053979027776</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D396" s="5">
+        <v>20243609</v>
+      </c>
+      <c r="E396" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="F396" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G396" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H396" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I396" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J396" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K396" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L396" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M396" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N396" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O396" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P396" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q396" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R396" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S396" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T396" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U396" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V396" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="W396" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X396" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y396" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z396" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA396" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB396" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC396" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD396" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE396" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF396" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG396" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH396" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI396" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ396" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK396" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL396" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM396" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN396" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO396" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP396" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ396" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR396" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS396" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT396" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU396" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV396" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW396" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX396" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY396" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ396" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA396" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB396" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC396" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD396" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE396" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF396" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG396" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH396" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI396" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ396" s="5">
+        <v>25</v>
+      </c>
+      <c r="BK396" s="5">
+        <v>14</v>
+      </c>
+      <c r="BL396" s="5">
+        <v>29</v>
+      </c>
+      <c r="BM396" s="5">
+        <v>26</v>
+      </c>
+      <c r="BN396" s="5">
+        <v>14</v>
+      </c>
+      <c r="BO396" s="5">
+        <v>26</v>
+      </c>
+      <c r="BP396" s="5">
+        <v>29</v>
+      </c>
+      <c r="BQ396" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="397" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A397" s="7">
+        <v>45616.439037881944</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="D397" s="8">
+        <v>20242618</v>
+      </c>
+      <c r="E397" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="F397" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G397" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H397" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I397" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J397" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K397" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L397" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M397" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N397" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O397" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P397" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q397" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R397" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S397" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T397" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U397" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="V397" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="W397" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X397" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y397" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z397" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA397" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB397" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC397" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD397" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE397" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF397" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG397" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH397" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI397" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ397" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK397" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL397" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM397" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN397" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO397" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP397" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ397" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR397" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS397" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT397" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU397" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV397" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW397" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX397" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY397" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ397" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA397" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB397" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC397" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD397" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE397" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF397" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG397" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH397" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI397" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ397" s="8">
+        <v>30</v>
+      </c>
+      <c r="BK397" s="8">
+        <v>18</v>
+      </c>
+      <c r="BL397" s="8">
+        <v>17</v>
+      </c>
+      <c r="BM397" s="8">
+        <v>24</v>
+      </c>
+      <c r="BN397" s="8">
+        <v>15</v>
+      </c>
+      <c r="BO397" s="8">
+        <v>26</v>
+      </c>
+      <c r="BP397" s="8">
+        <v>25</v>
+      </c>
+      <c r="BQ397" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="398" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A398" s="4">
+        <v>45616.515764062497</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D398" s="5">
+        <v>20241234</v>
+      </c>
+      <c r="E398" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="F398" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G398" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H398" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I398" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J398" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K398" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L398" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M398" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N398" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O398" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P398" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q398" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R398" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S398" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T398" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U398" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V398" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W398" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X398" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y398" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z398" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA398" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB398" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC398" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD398" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE398" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF398" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG398" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH398" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI398" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ398" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK398" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL398" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM398" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN398" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO398" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP398" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ398" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR398" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS398" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT398" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU398" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV398" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW398" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX398" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY398" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ398" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA398" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB398" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC398" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD398" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE398" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF398" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG398" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH398" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI398" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ398" s="5">
+        <v>21</v>
+      </c>
+      <c r="BK398" s="5">
+        <v>32</v>
+      </c>
+      <c r="BL398" s="5">
+        <v>7</v>
+      </c>
+      <c r="BM398" s="5">
+        <v>21</v>
+      </c>
+      <c r="BN398" s="5">
+        <v>34</v>
+      </c>
+      <c r="BO398" s="5">
+        <v>35</v>
+      </c>
+      <c r="BP398" s="5">
+        <v>16</v>
+      </c>
+      <c r="BQ398" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="399" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A399" s="7">
+        <v>45616.596946122685</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D399" s="8">
+        <v>20243031</v>
+      </c>
+      <c r="E399" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="F399" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G399" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H399" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I399" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J399" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K399" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L399" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M399" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N399" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O399" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P399" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q399" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R399" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S399" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T399" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U399" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="V399" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="W399" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X399" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y399" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z399" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA399" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB399" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC399" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD399" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE399" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF399" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG399" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH399" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI399" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ399" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK399" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL399" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM399" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN399" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO399" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP399" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ399" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR399" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS399" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT399" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU399" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV399" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW399" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX399" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY399" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ399" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA399" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB399" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC399" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD399" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE399" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF399" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG399" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH399" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI399" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ399" s="8">
+        <v>12</v>
+      </c>
+      <c r="BK399" s="8">
+        <v>18</v>
+      </c>
+      <c r="BL399" s="8">
+        <v>20</v>
+      </c>
+      <c r="BM399" s="8">
+        <v>28</v>
+      </c>
+      <c r="BN399" s="8">
+        <v>16</v>
+      </c>
+      <c r="BO399" s="8">
+        <v>17</v>
+      </c>
+      <c r="BP399" s="8">
+        <v>15</v>
+      </c>
+      <c r="BQ399" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="400" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A400" s="4">
+        <v>45616.712877731479</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D400" s="5">
+        <v>20213644</v>
+      </c>
+      <c r="E400" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="F400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G400" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I400" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J400" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K400" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L400" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N400" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R400" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U400" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="W400" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X400" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y400" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z400" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA400" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB400" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF400" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI400" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK400" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM400" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP400" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ400" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR400" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS400" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT400" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU400" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV400" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW400" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY400" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ400" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB400" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC400" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD400" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF400" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG400" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH400" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI400" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ400" s="5">
+        <v>14</v>
+      </c>
+      <c r="BK400" s="5">
+        <v>21</v>
+      </c>
+      <c r="BL400" s="5">
+        <v>22</v>
+      </c>
+      <c r="BM400" s="5">
+        <v>23</v>
+      </c>
+      <c r="BN400" s="5">
+        <v>22</v>
+      </c>
+      <c r="BO400" s="5">
+        <v>20</v>
+      </c>
+      <c r="BP400" s="5">
+        <v>21</v>
+      </c>
+      <c r="BQ400" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="401" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A401" s="7">
+        <v>45616.724831122687</v>
+      </c>
+      <c r="B401" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="D401" s="8">
+        <v>20227091</v>
+      </c>
+      <c r="E401" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="F401" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G401" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H401" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I401" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K401" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L401" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M401" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N401" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O401" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P401" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q401" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="V401" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="W401" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y401" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z401" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC401" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD401" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE401" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH401" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI401" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ401" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM401" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN401" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO401" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR401" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS401" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT401" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA401" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB401" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC401" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE401" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF401" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG401" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH401" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI401" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ401" s="8">
+        <v>24</v>
+      </c>
+      <c r="BK401" s="8">
+        <v>17</v>
+      </c>
+      <c r="BL401" s="8">
+        <v>21</v>
+      </c>
+      <c r="BM401" s="8">
+        <v>21</v>
+      </c>
+      <c r="BN401" s="8">
+        <v>25</v>
+      </c>
+      <c r="BO401" s="8">
+        <v>25</v>
+      </c>
+      <c r="BP401" s="8">
+        <v>21</v>
+      </c>
+      <c r="BQ401" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="402" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A402" s="4">
+        <v>45616.773931469907</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D402" s="5">
+        <v>20242919</v>
+      </c>
+      <c r="E402" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="F402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ402" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK402" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL402" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM402" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN402" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO402" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP402" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ402" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR402" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC402" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD402" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE402" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF402" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG402" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH402" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI402" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ402" s="5">
+        <v>27</v>
+      </c>
+      <c r="BK402" s="5">
+        <v>27</v>
+      </c>
+      <c r="BL402" s="5">
+        <v>26</v>
+      </c>
+      <c r="BM402" s="5">
+        <v>26</v>
+      </c>
+      <c r="BN402" s="5">
+        <v>26</v>
+      </c>
+      <c r="BO402" s="5">
+        <v>27</v>
+      </c>
+      <c r="BP402" s="5">
+        <v>25</v>
+      </c>
+      <c r="BQ402" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="403" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A403" s="7">
+        <v>45616.84225332176</v>
+      </c>
+      <c r="B403" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D403" s="8">
+        <v>20226638</v>
+      </c>
+      <c r="E403" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="F403" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G403" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K403" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L403" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O403" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P403" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q403" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R403" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S403" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="T403" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="V403" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="W403" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA403" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE403" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF403" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG403" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI403" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ403" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK403" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM403" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP403" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ403" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR403" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU403" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV403" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW403" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY403" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ403" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA403" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD403" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE403" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF403" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG403" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH403" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI403" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ403" s="8">
+        <v>23</v>
+      </c>
+      <c r="BK403" s="8">
+        <v>21</v>
+      </c>
+      <c r="BL403" s="8">
+        <v>15</v>
+      </c>
+      <c r="BM403" s="8">
+        <v>20</v>
+      </c>
+      <c r="BN403" s="8">
+        <v>16</v>
+      </c>
+      <c r="BO403" s="8">
+        <v>23</v>
+      </c>
+      <c r="BP403" s="8">
+        <v>22</v>
+      </c>
+      <c r="BQ403" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="404" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A404" s="4">
+        <v>45616.851204791667</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D404" s="5">
+        <v>20227040</v>
+      </c>
+      <c r="E404" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="F404" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G404" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J404" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S404" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T404" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U404" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="V404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W404" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA404" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB404" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI404" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ404" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK404" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL404" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ404" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV404" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ404" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA404" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB404" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC404" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD404" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE404" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF404" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG404" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH404" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI404" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ404" s="5">
+        <v>13</v>
+      </c>
+      <c r="BK404" s="5">
+        <v>9</v>
+      </c>
+      <c r="BL404" s="5">
+        <v>10</v>
+      </c>
+      <c r="BM404" s="5">
+        <v>8</v>
+      </c>
+      <c r="BN404" s="5">
+        <v>11</v>
+      </c>
+      <c r="BO404" s="5">
+        <v>17</v>
+      </c>
+      <c r="BP404" s="5">
+        <v>17</v>
+      </c>
+      <c r="BQ404" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="405" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A405" s="7">
+        <v>45616.854702719909</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D405" s="8">
+        <v>20202761</v>
+      </c>
+      <c r="E405" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="F405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G405" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J405" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P405" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R405" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U405" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="V405" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="W405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE405" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP405" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ405" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW405" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA405" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB405" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC405" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD405" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG405" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI405" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ405" s="8">
+        <v>20</v>
+      </c>
+      <c r="BK405" s="8">
+        <v>15</v>
+      </c>
+      <c r="BL405" s="8">
+        <v>16</v>
+      </c>
+      <c r="BM405" s="8">
+        <v>21</v>
+      </c>
+      <c r="BN405" s="8">
+        <v>19</v>
+      </c>
+      <c r="BO405" s="8">
+        <v>20</v>
+      </c>
+      <c r="BP405" s="8">
+        <v>24</v>
+      </c>
+      <c r="BQ405" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="406" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A406" s="4">
+        <v>45616.8599884375</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="C406" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="D406" s="5">
+        <v>20213219</v>
+      </c>
+      <c r="E406" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="F406" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H406" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I406" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J406" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L406" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N406" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q406" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R406" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T406" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U406" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V406" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W406" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X406" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y406" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z406" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA406" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC406" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE406" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH406" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI406" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ406" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK406" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL406" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO406" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP406" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR406" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT406" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV406" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX406" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY406" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ406" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB406" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC406" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG406" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH406" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI406" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ406" s="5">
+        <v>18</v>
+      </c>
+      <c r="BK406" s="5">
+        <v>22</v>
+      </c>
+      <c r="BL406" s="5">
+        <v>25</v>
+      </c>
+      <c r="BM406" s="5">
+        <v>27</v>
+      </c>
+      <c r="BN406" s="5">
+        <v>13</v>
+      </c>
+      <c r="BO406" s="5">
+        <v>26</v>
+      </c>
+      <c r="BP406" s="5">
+        <v>18</v>
+      </c>
+      <c r="BQ406" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="407" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="14">
+        <v>45616.86873642361</v>
+      </c>
+      <c r="B407" s="15" t="s">
+        <v>956</v>
+      </c>
+      <c r="C407" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D407" s="15">
+        <v>20231621</v>
+      </c>
+      <c r="E407" s="15" t="s">
+        <v>957</v>
+      </c>
+      <c r="F407" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G407" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H407" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I407" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J407" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K407" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L407" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M407" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N407" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O407" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P407" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q407" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="R407" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S407" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="T407" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="U407" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="V407" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="W407" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="X407" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y407" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z407" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA407" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB407" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC407" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD407" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE407" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF407" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG407" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH407" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI407" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ407" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK407" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL407" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM407" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN407" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO407" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP407" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ407" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR407" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS407" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT407" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU407" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV407" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW407" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX407" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY407" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ407" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA407" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB407" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC407" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD407" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE407" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF407" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG407" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH407" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI407" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ407" s="15">
+        <v>21</v>
+      </c>
+      <c r="BK407" s="15">
+        <v>14</v>
+      </c>
+      <c r="BL407" s="15">
+        <v>13</v>
+      </c>
+      <c r="BM407" s="15">
+        <v>15</v>
+      </c>
+      <c r="BN407" s="15">
+        <v>25</v>
+      </c>
+      <c r="BO407" s="15">
+        <v>23</v>
+      </c>
+      <c r="BP407" s="15">
+        <v>15</v>
+      </c>
+      <c r="BQ407" s="16">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
